--- a/LR3/table_1_78.xlsx
+++ b/LR3/table_1_78.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25803"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4280B718-E256-417A-9CB4-ACD6DF59928D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{297FA265-D346-4577-960F-FADE22DFE182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,15 +577,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="7"/>
     <col min="2" max="2" width="10.5703125" style="7" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="7"/>
+    <col min="3" max="5" width="9.140625" style="7"/>
+    <col min="6" max="6" width="11.42578125" style="7" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" style="7" customWidth="1"/>
     <col min="9" max="12" width="9.140625" style="7"/>
@@ -644,38 +645,37 @@
       <c r="AT1" s="6"/>
     </row>
     <row r="2" spans="1:46" s="4" customFormat="1" ht="15.75">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="2"/>
@@ -714,43 +714,42 @@
       <c r="AT2" s="3"/>
     </row>
     <row r="3" spans="1:46" ht="15.75">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="C3" s="5">
+        <v>70</v>
+      </c>
       <c r="D3" s="5">
-        <v>70</v>
-      </c>
-      <c r="E3" s="5">
         <f>78*1.1</f>
         <v>85.800000000000011</v>
       </c>
-      <c r="F3" s="5">
-        <f>D3*E3</f>
+      <c r="E3" s="5">
+        <f>C3*D3</f>
         <v>6006.0000000000009</v>
       </c>
+      <c r="F3" s="9">
+        <v>44813</v>
+      </c>
       <c r="G3" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H3" s="9">
         <v>44805</v>
       </c>
+      <c r="H3" s="5">
+        <f>IF(G3&lt;=F3,0,G3-F3)</f>
+        <v>0</v>
+      </c>
       <c r="I3" s="5">
-        <f>IF(H3&lt;=G3,0,H3-G3)</f>
+        <v>10</v>
+      </c>
+      <c r="J3" s="5">
+        <f>H3*I3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="5">
-        <v>10</v>
-      </c>
       <c r="K3" s="5">
-        <f>I3*J3</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="5">
-        <f>K3+F3</f>
+        <f>J3+E3</f>
         <v>6006.0000000000009</v>
       </c>
       <c r="M3" s="5"/>
@@ -789,43 +788,42 @@
       <c r="AT3" s="6"/>
     </row>
     <row r="4" spans="1:46" ht="15.75">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="8">
+      <c r="C4" s="8">
         <v>69.5</v>
       </c>
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:D34" si="0">78*1.1</f>
+        <v>85.800000000000011</v>
+      </c>
       <c r="E4" s="5">
-        <f t="shared" ref="E4:E34" si="0">78*1.1</f>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" ref="F4:F38" si="1">D4*E4</f>
+        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>5963.1</v>
       </c>
+      <c r="F4" s="9">
+        <v>44813</v>
+      </c>
       <c r="G4" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H4" s="9">
         <v>44806</v>
       </c>
+      <c r="H4" s="5">
+        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
+        <v>0</v>
+      </c>
       <c r="I4" s="5">
-        <f t="shared" ref="I4:I38" si="2">IF(H4&lt;=G4,0,H4-G4)</f>
+        <v>10</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" ref="J4:J38" si="3">H4*I4</f>
         <v>0</v>
       </c>
-      <c r="J4" s="5">
-        <v>10</v>
-      </c>
       <c r="K4" s="5">
-        <f t="shared" ref="K4:K38" si="3">I4*J4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="5">
-        <f t="shared" ref="L4:L38" si="4">K4+F4</f>
+        <f t="shared" ref="K4:K38" si="4">J4+E4</f>
         <v>5963.1</v>
       </c>
       <c r="M4" s="5"/>
@@ -864,42 +862,41 @@
       <c r="AT4" s="6"/>
     </row>
     <row r="5" spans="1:46" ht="15.75">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="C5" s="5">
+        <v>69</v>
+      </c>
       <c r="D5" s="5">
-        <v>69</v>
-      </c>
-      <c r="E5" s="5">
         <f t="shared" si="0"/>
         <v>85.800000000000011</v>
       </c>
-      <c r="F5" s="5">
+      <c r="E5" s="5">
         <f t="shared" si="1"/>
         <v>5920.2000000000007</v>
       </c>
+      <c r="F5" s="9">
+        <v>44813</v>
+      </c>
       <c r="G5" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H5" s="9">
         <v>44807</v>
       </c>
-      <c r="I5" s="5">
+      <c r="H5" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I5" s="5">
+        <v>10</v>
+      </c>
       <c r="J5" s="5">
-        <v>10</v>
-      </c>
-      <c r="K5" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L5" s="5">
+      <c r="K5" s="5">
         <f t="shared" si="4"/>
         <v>5920.2000000000007</v>
       </c>
@@ -939,42 +936,41 @@
       <c r="AT5" s="6"/>
     </row>
     <row r="6" spans="1:46" ht="15.75">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="8">
+      <c r="C6" s="8">
         <v>68.5</v>
       </c>
-      <c r="E6" s="5">
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
         <v>85.800000000000011</v>
       </c>
-      <c r="F6" s="5">
+      <c r="E6" s="5">
         <f t="shared" si="1"/>
         <v>5877.3000000000011</v>
       </c>
+      <c r="F6" s="9">
+        <v>44813</v>
+      </c>
       <c r="G6" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H6" s="9">
         <v>44808</v>
       </c>
-      <c r="I6" s="5">
+      <c r="H6" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I6" s="5">
+        <v>10</v>
+      </c>
       <c r="J6" s="5">
-        <v>10</v>
-      </c>
-      <c r="K6" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L6" s="5">
+      <c r="K6" s="5">
         <f t="shared" si="4"/>
         <v>5877.3000000000011</v>
       </c>
@@ -1014,42 +1010,41 @@
       <c r="AT6" s="6"/>
     </row>
     <row r="7" spans="1:46" ht="15.75">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="C7" s="5">
+        <v>68</v>
+      </c>
       <c r="D7" s="5">
-        <v>68</v>
-      </c>
-      <c r="E7" s="5">
         <f t="shared" si="0"/>
         <v>85.800000000000011</v>
       </c>
-      <c r="F7" s="5">
+      <c r="E7" s="5">
         <f t="shared" si="1"/>
         <v>5834.4000000000005</v>
       </c>
+      <c r="F7" s="9">
+        <v>44813</v>
+      </c>
       <c r="G7" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H7" s="9">
         <v>44809</v>
       </c>
-      <c r="I7" s="5">
+      <c r="H7" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I7" s="5">
+        <v>10</v>
+      </c>
       <c r="J7" s="5">
-        <v>10</v>
-      </c>
-      <c r="K7" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L7" s="5">
+      <c r="K7" s="5">
         <f t="shared" si="4"/>
         <v>5834.4000000000005</v>
       </c>
@@ -1089,42 +1084,41 @@
       <c r="AT7" s="6"/>
     </row>
     <row r="8" spans="1:46" ht="15.75">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="8">
+      <c r="C8" s="8">
         <v>67.5</v>
       </c>
-      <c r="E8" s="5">
+      <c r="D8" s="5">
         <f t="shared" si="0"/>
         <v>85.800000000000011</v>
       </c>
-      <c r="F8" s="5">
+      <c r="E8" s="5">
         <f t="shared" si="1"/>
         <v>5791.5000000000009</v>
       </c>
+      <c r="F8" s="9">
+        <v>44813</v>
+      </c>
       <c r="G8" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H8" s="9">
         <v>44810</v>
       </c>
-      <c r="I8" s="5">
+      <c r="H8" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I8" s="5">
+        <v>10</v>
+      </c>
       <c r="J8" s="5">
-        <v>10</v>
-      </c>
-      <c r="K8" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L8" s="5">
+      <c r="K8" s="5">
         <f t="shared" si="4"/>
         <v>5791.5000000000009</v>
       </c>
@@ -1164,42 +1158,41 @@
       <c r="AT8" s="6"/>
     </row>
     <row r="9" spans="1:46" ht="15.75">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="C9" s="5">
+        <v>67</v>
+      </c>
       <c r="D9" s="5">
-        <v>67</v>
-      </c>
-      <c r="E9" s="5">
         <f t="shared" si="0"/>
         <v>85.800000000000011</v>
       </c>
-      <c r="F9" s="5">
+      <c r="E9" s="5">
         <f t="shared" si="1"/>
         <v>5748.6</v>
       </c>
+      <c r="F9" s="9">
+        <v>44813</v>
+      </c>
       <c r="G9" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H9" s="9">
         <v>44811</v>
       </c>
-      <c r="I9" s="5">
+      <c r="H9" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I9" s="5">
+        <v>10</v>
+      </c>
       <c r="J9" s="5">
-        <v>10</v>
-      </c>
-      <c r="K9" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L9" s="5">
+      <c r="K9" s="5">
         <f t="shared" si="4"/>
         <v>5748.6</v>
       </c>
@@ -1239,42 +1232,41 @@
       <c r="AT9" s="6"/>
     </row>
     <row r="10" spans="1:46" ht="15.75">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="C10" s="5">
+        <v>66.5</v>
+      </c>
       <c r="D10" s="5">
-        <v>66.5</v>
-      </c>
-      <c r="E10" s="5">
         <f t="shared" si="0"/>
         <v>85.800000000000011</v>
       </c>
-      <c r="F10" s="5">
+      <c r="E10" s="5">
         <f t="shared" si="1"/>
         <v>5705.7000000000007</v>
       </c>
+      <c r="F10" s="9">
+        <v>44813</v>
+      </c>
       <c r="G10" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H10" s="9">
         <v>44812</v>
       </c>
-      <c r="I10" s="5">
+      <c r="H10" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I10" s="5">
+        <v>10</v>
+      </c>
       <c r="J10" s="5">
-        <v>10</v>
-      </c>
-      <c r="K10" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L10" s="5">
+      <c r="K10" s="5">
         <f t="shared" si="4"/>
         <v>5705.7000000000007</v>
       </c>
@@ -1314,42 +1306,41 @@
       <c r="AT10" s="6"/>
     </row>
     <row r="11" spans="1:46" ht="15.75">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="8">
+      <c r="C11" s="8">
         <v>66</v>
       </c>
-      <c r="E11" s="5">
+      <c r="D11" s="5">
         <f t="shared" si="0"/>
         <v>85.800000000000011</v>
       </c>
-      <c r="F11" s="5">
+      <c r="E11" s="5">
         <f t="shared" si="1"/>
         <v>5662.8000000000011</v>
       </c>
+      <c r="F11" s="9">
+        <v>44813</v>
+      </c>
       <c r="G11" s="9">
         <v>44813</v>
       </c>
-      <c r="H11" s="9">
-        <v>44813</v>
-      </c>
-      <c r="I11" s="5">
+      <c r="H11" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I11" s="5">
+        <v>10</v>
+      </c>
       <c r="J11" s="5">
-        <v>10</v>
-      </c>
-      <c r="K11" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L11" s="5">
+      <c r="K11" s="5">
         <f t="shared" si="4"/>
         <v>5662.8000000000011</v>
       </c>
@@ -1389,42 +1380,41 @@
       <c r="AT11" s="6"/>
     </row>
     <row r="12" spans="1:46" ht="15.75">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="C12" s="5">
+        <v>65.5</v>
+      </c>
       <c r="D12" s="5">
-        <v>65.5</v>
-      </c>
-      <c r="E12" s="5">
         <f t="shared" si="0"/>
         <v>85.800000000000011</v>
       </c>
-      <c r="F12" s="5">
+      <c r="E12" s="5">
         <f t="shared" si="1"/>
         <v>5619.9000000000005</v>
       </c>
+      <c r="F12" s="9">
+        <v>44813</v>
+      </c>
       <c r="G12" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H12" s="9">
         <v>44814</v>
       </c>
-      <c r="I12" s="5">
+      <c r="H12" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="I12" s="5">
+        <v>10</v>
+      </c>
       <c r="J12" s="5">
-        <v>10</v>
-      </c>
-      <c r="K12" s="5">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L12" s="5">
+      <c r="K12" s="5">
         <f t="shared" si="4"/>
         <v>5629.9000000000005</v>
       </c>
@@ -1464,42 +1454,41 @@
       <c r="AT12" s="6"/>
     </row>
     <row r="13" spans="1:46" ht="15.75">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="8">
+      <c r="C13" s="8">
         <v>65</v>
       </c>
-      <c r="E13" s="5">
+      <c r="D13" s="5">
         <f t="shared" si="0"/>
         <v>85.800000000000011</v>
       </c>
-      <c r="F13" s="5">
+      <c r="E13" s="5">
         <f t="shared" si="1"/>
         <v>5577.0000000000009</v>
       </c>
+      <c r="F13" s="9">
+        <v>44813</v>
+      </c>
       <c r="G13" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H13" s="9">
         <v>44815</v>
       </c>
-      <c r="I13" s="5">
+      <c r="H13" s="5">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="I13" s="5">
+        <v>10</v>
+      </c>
       <c r="J13" s="5">
-        <v>10</v>
-      </c>
-      <c r="K13" s="5">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="L13" s="5">
+      <c r="K13" s="5">
         <f t="shared" si="4"/>
         <v>5597.0000000000009</v>
       </c>
@@ -1539,42 +1528,41 @@
       <c r="AT13" s="6"/>
     </row>
     <row r="14" spans="1:46" ht="15.75">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="C14" s="5">
+        <v>64.5</v>
+      </c>
       <c r="D14" s="5">
-        <v>64.5</v>
-      </c>
-      <c r="E14" s="5">
         <f t="shared" si="0"/>
         <v>85.800000000000011</v>
       </c>
-      <c r="F14" s="5">
+      <c r="E14" s="5">
         <f t="shared" si="1"/>
         <v>5534.1</v>
       </c>
+      <c r="F14" s="9">
+        <v>44813</v>
+      </c>
       <c r="G14" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H14" s="9">
         <v>44816</v>
       </c>
-      <c r="I14" s="5">
+      <c r="H14" s="5">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
+      <c r="I14" s="5">
+        <v>10</v>
+      </c>
       <c r="J14" s="5">
-        <v>10</v>
-      </c>
-      <c r="K14" s="5">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="L14" s="5">
+      <c r="K14" s="5">
         <f t="shared" si="4"/>
         <v>5564.1</v>
       </c>
@@ -1614,42 +1602,41 @@
       <c r="AT14" s="6"/>
     </row>
     <row r="15" spans="1:46" ht="15.75">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="8">
+      <c r="C15" s="8">
         <v>64</v>
       </c>
-      <c r="E15" s="5">
+      <c r="D15" s="5">
         <f t="shared" si="0"/>
         <v>85.800000000000011</v>
       </c>
-      <c r="F15" s="5">
+      <c r="E15" s="5">
         <f t="shared" si="1"/>
         <v>5491.2000000000007</v>
       </c>
+      <c r="F15" s="9">
+        <v>44813</v>
+      </c>
       <c r="G15" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H15" s="9">
         <v>44817</v>
       </c>
-      <c r="I15" s="5">
+      <c r="H15" s="5">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
+      <c r="I15" s="5">
+        <v>10</v>
+      </c>
       <c r="J15" s="5">
-        <v>10</v>
-      </c>
-      <c r="K15" s="5">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="L15" s="5">
+      <c r="K15" s="5">
         <f t="shared" si="4"/>
         <v>5531.2000000000007</v>
       </c>
@@ -1689,42 +1676,41 @@
       <c r="AT15" s="6"/>
     </row>
     <row r="16" spans="1:46" ht="15.75">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="C16" s="5">
+        <v>63.5</v>
+      </c>
       <c r="D16" s="5">
-        <v>63.5</v>
-      </c>
-      <c r="E16" s="5">
         <f t="shared" si="0"/>
         <v>85.800000000000011</v>
       </c>
-      <c r="F16" s="5">
+      <c r="E16" s="5">
         <f t="shared" si="1"/>
         <v>5448.3000000000011</v>
       </c>
+      <c r="F16" s="9">
+        <v>44813</v>
+      </c>
       <c r="G16" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H16" s="9">
         <v>44818</v>
       </c>
-      <c r="I16" s="5">
+      <c r="H16" s="5">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
+      <c r="I16" s="5">
+        <v>10</v>
+      </c>
       <c r="J16" s="5">
-        <v>10</v>
-      </c>
-      <c r="K16" s="5">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="L16" s="5">
+      <c r="K16" s="5">
         <f t="shared" si="4"/>
         <v>5498.3000000000011</v>
       </c>
@@ -1764,42 +1750,41 @@
       <c r="AT16" s="6"/>
     </row>
     <row r="17" spans="1:46" ht="15.75">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="C17" s="5">
+        <v>63</v>
+      </c>
       <c r="D17" s="5">
-        <v>63</v>
-      </c>
-      <c r="E17" s="5">
         <f t="shared" si="0"/>
         <v>85.800000000000011</v>
       </c>
-      <c r="F17" s="5">
+      <c r="E17" s="5">
         <f t="shared" si="1"/>
         <v>5405.4000000000005</v>
       </c>
+      <c r="F17" s="9">
+        <v>44813</v>
+      </c>
       <c r="G17" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H17" s="9">
         <v>44819</v>
       </c>
-      <c r="I17" s="5">
+      <c r="H17" s="5">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
+      <c r="I17" s="5">
+        <v>10</v>
+      </c>
       <c r="J17" s="5">
-        <v>10</v>
-      </c>
-      <c r="K17" s="5">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="L17" s="5">
+      <c r="K17" s="5">
         <f t="shared" si="4"/>
         <v>5465.4000000000005</v>
       </c>
@@ -1839,42 +1824,41 @@
       <c r="AT17" s="6"/>
     </row>
     <row r="18" spans="1:46" ht="15.75">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="8">
+      <c r="C18" s="8">
         <v>62.5</v>
       </c>
-      <c r="E18" s="5">
+      <c r="D18" s="5">
         <f t="shared" si="0"/>
         <v>85.800000000000011</v>
       </c>
-      <c r="F18" s="5">
+      <c r="E18" s="5">
         <f t="shared" si="1"/>
         <v>5362.5000000000009</v>
       </c>
+      <c r="F18" s="9">
+        <v>44813</v>
+      </c>
       <c r="G18" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H18" s="9">
         <v>44820</v>
       </c>
-      <c r="I18" s="5">
+      <c r="H18" s="5">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
+      <c r="I18" s="5">
+        <v>10</v>
+      </c>
       <c r="J18" s="5">
-        <v>10</v>
-      </c>
-      <c r="K18" s="5">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="L18" s="5">
+      <c r="K18" s="5">
         <f t="shared" si="4"/>
         <v>5432.5000000000009</v>
       </c>
@@ -1914,42 +1898,41 @@
       <c r="AT18" s="6"/>
     </row>
     <row r="19" spans="1:46" ht="15.75">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="C19" s="5">
+        <v>62</v>
+      </c>
       <c r="D19" s="5">
-        <v>62</v>
-      </c>
-      <c r="E19" s="5">
         <f t="shared" si="0"/>
         <v>85.800000000000011</v>
       </c>
-      <c r="F19" s="5">
+      <c r="E19" s="5">
         <f t="shared" si="1"/>
         <v>5319.6</v>
       </c>
+      <c r="F19" s="9">
+        <v>44813</v>
+      </c>
       <c r="G19" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H19" s="9">
         <v>44821</v>
       </c>
-      <c r="I19" s="5">
+      <c r="H19" s="5">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
+      <c r="I19" s="5">
+        <v>10</v>
+      </c>
       <c r="J19" s="5">
-        <v>10</v>
-      </c>
-      <c r="K19" s="5">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="L19" s="5">
+      <c r="K19" s="5">
         <f t="shared" si="4"/>
         <v>5399.6</v>
       </c>
@@ -1989,42 +1972,41 @@
       <c r="AT19" s="6"/>
     </row>
     <row r="20" spans="1:46" ht="15.75">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="8">
+      <c r="C20" s="8">
         <v>61.5</v>
       </c>
-      <c r="E20" s="5">
+      <c r="D20" s="5">
         <f t="shared" si="0"/>
         <v>85.800000000000011</v>
       </c>
-      <c r="F20" s="5">
+      <c r="E20" s="5">
         <f t="shared" si="1"/>
         <v>5276.7000000000007</v>
       </c>
+      <c r="F20" s="9">
+        <v>44813</v>
+      </c>
       <c r="G20" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H20" s="9">
         <v>44822</v>
       </c>
-      <c r="I20" s="5">
+      <c r="H20" s="5">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
+      <c r="I20" s="5">
+        <v>10</v>
+      </c>
       <c r="J20" s="5">
-        <v>10</v>
-      </c>
-      <c r="K20" s="5">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="L20" s="5">
+      <c r="K20" s="5">
         <f t="shared" si="4"/>
         <v>5366.7000000000007</v>
       </c>
@@ -2064,42 +2046,41 @@
       <c r="AT20" s="6"/>
     </row>
     <row r="21" spans="1:46" ht="15.75">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="C21" s="5">
+        <v>61</v>
+      </c>
       <c r="D21" s="5">
-        <v>61</v>
-      </c>
-      <c r="E21" s="5">
         <f t="shared" si="0"/>
         <v>85.800000000000011</v>
       </c>
-      <c r="F21" s="5">
+      <c r="E21" s="5">
         <f t="shared" si="1"/>
         <v>5233.8000000000011</v>
       </c>
+      <c r="F21" s="9">
+        <v>44813</v>
+      </c>
       <c r="G21" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H21" s="9">
         <v>44823</v>
       </c>
-      <c r="I21" s="5">
+      <c r="H21" s="5">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
+      <c r="I21" s="5">
+        <v>10</v>
+      </c>
       <c r="J21" s="5">
-        <v>10</v>
-      </c>
-      <c r="K21" s="5">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="L21" s="5">
+      <c r="K21" s="5">
         <f t="shared" si="4"/>
         <v>5333.8000000000011</v>
       </c>
@@ -2139,42 +2120,41 @@
       <c r="AT21" s="6"/>
     </row>
     <row r="22" spans="1:46" ht="15.75">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="8">
+      <c r="C22" s="8">
         <v>60.5</v>
       </c>
-      <c r="E22" s="5">
+      <c r="D22" s="5">
         <f t="shared" si="0"/>
         <v>85.800000000000011</v>
       </c>
-      <c r="F22" s="5">
+      <c r="E22" s="5">
         <f t="shared" si="1"/>
         <v>5190.9000000000005</v>
       </c>
+      <c r="F22" s="9">
+        <v>44813</v>
+      </c>
       <c r="G22" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H22" s="9">
         <v>44824</v>
       </c>
-      <c r="I22" s="5">
+      <c r="H22" s="5">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
+      <c r="I22" s="5">
+        <v>10</v>
+      </c>
       <c r="J22" s="5">
-        <v>10</v>
-      </c>
-      <c r="K22" s="5">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="L22" s="5">
+      <c r="K22" s="5">
         <f t="shared" si="4"/>
         <v>5300.9000000000005</v>
       </c>
@@ -2214,42 +2194,41 @@
       <c r="AT22" s="6"/>
     </row>
     <row r="23" spans="1:46" ht="15.75">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="C23" s="5">
+        <v>60</v>
+      </c>
       <c r="D23" s="5">
-        <v>60</v>
-      </c>
-      <c r="E23" s="5">
         <f t="shared" si="0"/>
         <v>85.800000000000011</v>
       </c>
-      <c r="F23" s="5">
+      <c r="E23" s="5">
         <f t="shared" si="1"/>
         <v>5148.0000000000009</v>
       </c>
+      <c r="F23" s="9">
+        <v>44813</v>
+      </c>
       <c r="G23" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H23" s="9">
         <v>44825</v>
       </c>
-      <c r="I23" s="5">
+      <c r="H23" s="5">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
+      <c r="I23" s="5">
+        <v>10</v>
+      </c>
       <c r="J23" s="5">
-        <v>10</v>
-      </c>
-      <c r="K23" s="5">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="L23" s="5">
+      <c r="K23" s="5">
         <f t="shared" si="4"/>
         <v>5268.0000000000009</v>
       </c>
@@ -2289,42 +2268,41 @@
       <c r="AT23" s="6"/>
     </row>
     <row r="24" spans="1:46" ht="15.75">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="C24" s="5">
+        <v>59.5</v>
+      </c>
       <c r="D24" s="5">
-        <v>59.5</v>
-      </c>
-      <c r="E24" s="5">
         <f t="shared" si="0"/>
         <v>85.800000000000011</v>
       </c>
-      <c r="F24" s="5">
+      <c r="E24" s="5">
         <f t="shared" si="1"/>
         <v>5105.1000000000004</v>
       </c>
+      <c r="F24" s="9">
+        <v>44813</v>
+      </c>
       <c r="G24" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H24" s="9">
         <v>44826</v>
       </c>
-      <c r="I24" s="5">
+      <c r="H24" s="5">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
+      <c r="I24" s="5">
+        <v>10</v>
+      </c>
       <c r="J24" s="5">
-        <v>10</v>
-      </c>
-      <c r="K24" s="5">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="L24" s="5">
+      <c r="K24" s="5">
         <f t="shared" si="4"/>
         <v>5235.1000000000004</v>
       </c>
@@ -2364,42 +2342,41 @@
       <c r="AT24" s="6"/>
     </row>
     <row r="25" spans="1:46" ht="15.75">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="8">
+      <c r="C25" s="8">
         <v>59</v>
       </c>
-      <c r="E25" s="5">
+      <c r="D25" s="5">
         <f t="shared" si="0"/>
         <v>85.800000000000011</v>
       </c>
-      <c r="F25" s="5">
+      <c r="E25" s="5">
         <f t="shared" si="1"/>
         <v>5062.2000000000007</v>
       </c>
+      <c r="F25" s="9">
+        <v>44813</v>
+      </c>
       <c r="G25" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H25" s="9">
         <v>44827</v>
       </c>
-      <c r="I25" s="5">
+      <c r="H25" s="5">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
+      <c r="I25" s="5">
+        <v>10</v>
+      </c>
       <c r="J25" s="5">
-        <v>10</v>
-      </c>
-      <c r="K25" s="5">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="L25" s="5">
+      <c r="K25" s="5">
         <f t="shared" si="4"/>
         <v>5202.2000000000007</v>
       </c>
@@ -2439,42 +2416,41 @@
       <c r="AT25" s="6"/>
     </row>
     <row r="26" spans="1:46" ht="15.75">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="C26" s="5">
+        <v>58.5</v>
+      </c>
       <c r="D26" s="5">
-        <v>58.5</v>
-      </c>
-      <c r="E26" s="5">
         <f t="shared" si="0"/>
         <v>85.800000000000011</v>
       </c>
-      <c r="F26" s="5">
+      <c r="E26" s="5">
         <f t="shared" si="1"/>
         <v>5019.3000000000011</v>
       </c>
+      <c r="F26" s="9">
+        <v>44813</v>
+      </c>
       <c r="G26" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H26" s="9">
         <v>44828</v>
       </c>
-      <c r="I26" s="5">
+      <c r="H26" s="5">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
+      <c r="I26" s="5">
+        <v>10</v>
+      </c>
       <c r="J26" s="5">
-        <v>10</v>
-      </c>
-      <c r="K26" s="5">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="L26" s="5">
+      <c r="K26" s="5">
         <f t="shared" si="4"/>
         <v>5169.3000000000011</v>
       </c>
@@ -2514,42 +2490,41 @@
       <c r="AT26" s="6"/>
     </row>
     <row r="27" spans="1:46" ht="15.75">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5">
+      <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="8">
+      <c r="C27" s="8">
         <v>58</v>
       </c>
-      <c r="E27" s="5">
+      <c r="D27" s="5">
         <f t="shared" si="0"/>
         <v>85.800000000000011</v>
       </c>
-      <c r="F27" s="5">
+      <c r="E27" s="5">
         <f t="shared" si="1"/>
         <v>4976.4000000000005</v>
       </c>
+      <c r="F27" s="9">
+        <v>44813</v>
+      </c>
       <c r="G27" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H27" s="9">
         <v>44829</v>
       </c>
-      <c r="I27" s="5">
+      <c r="H27" s="5">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
+      <c r="I27" s="5">
+        <v>10</v>
+      </c>
       <c r="J27" s="5">
-        <v>10</v>
-      </c>
-      <c r="K27" s="5">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="L27" s="5">
+      <c r="K27" s="5">
         <f t="shared" si="4"/>
         <v>5136.4000000000005</v>
       </c>
@@ -2589,42 +2564,41 @@
       <c r="AT27" s="6"/>
     </row>
     <row r="28" spans="1:46" ht="15.75">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5">
+      <c r="A28" s="5">
         <v>26</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="C28" s="5">
+        <v>57.5</v>
+      </c>
       <c r="D28" s="5">
-        <v>57.5</v>
-      </c>
-      <c r="E28" s="5">
         <f t="shared" si="0"/>
         <v>85.800000000000011</v>
       </c>
-      <c r="F28" s="5">
+      <c r="E28" s="5">
         <f t="shared" si="1"/>
         <v>4933.5000000000009</v>
       </c>
+      <c r="F28" s="9">
+        <v>44813</v>
+      </c>
       <c r="G28" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H28" s="9">
         <v>44830</v>
       </c>
-      <c r="I28" s="5">
+      <c r="H28" s="5">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
+      <c r="I28" s="5">
+        <v>10</v>
+      </c>
       <c r="J28" s="5">
-        <v>10</v>
-      </c>
-      <c r="K28" s="5">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="L28" s="5">
+      <c r="K28" s="5">
         <f t="shared" si="4"/>
         <v>5103.5000000000009</v>
       </c>
@@ -2664,42 +2638,41 @@
       <c r="AT28" s="6"/>
     </row>
     <row r="29" spans="1:46" ht="15.75">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5">
+      <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="8">
+      <c r="C29" s="8">
         <v>57</v>
       </c>
-      <c r="E29" s="5">
+      <c r="D29" s="5">
         <f t="shared" si="0"/>
         <v>85.800000000000011</v>
       </c>
-      <c r="F29" s="5">
+      <c r="E29" s="5">
         <f t="shared" si="1"/>
         <v>4890.6000000000004</v>
       </c>
+      <c r="F29" s="9">
+        <v>44813</v>
+      </c>
       <c r="G29" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H29" s="9">
         <v>44831</v>
       </c>
-      <c r="I29" s="5">
+      <c r="H29" s="5">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
+      <c r="I29" s="5">
+        <v>10</v>
+      </c>
       <c r="J29" s="5">
-        <v>10</v>
-      </c>
-      <c r="K29" s="5">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="L29" s="5">
+      <c r="K29" s="5">
         <f t="shared" si="4"/>
         <v>5070.6000000000004</v>
       </c>
@@ -2739,42 +2712,41 @@
       <c r="AT29" s="6"/>
     </row>
     <row r="30" spans="1:46" ht="15.75">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5">
+      <c r="A30" s="5">
         <v>28</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="C30" s="5">
+        <v>56.5</v>
+      </c>
       <c r="D30" s="5">
-        <v>56.5</v>
-      </c>
-      <c r="E30" s="5">
         <f t="shared" si="0"/>
         <v>85.800000000000011</v>
       </c>
-      <c r="F30" s="5">
+      <c r="E30" s="5">
         <f t="shared" si="1"/>
         <v>4847.7000000000007</v>
       </c>
+      <c r="F30" s="9">
+        <v>44813</v>
+      </c>
       <c r="G30" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H30" s="9">
         <v>44832</v>
       </c>
-      <c r="I30" s="5">
+      <c r="H30" s="5">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
+      <c r="I30" s="5">
+        <v>10</v>
+      </c>
       <c r="J30" s="5">
-        <v>10</v>
-      </c>
-      <c r="K30" s="5">
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="L30" s="5">
+      <c r="K30" s="5">
         <f t="shared" si="4"/>
         <v>5037.7000000000007</v>
       </c>
@@ -2814,42 +2786,41 @@
       <c r="AT30" s="6"/>
     </row>
     <row r="31" spans="1:46" ht="15.75">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5">
+      <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="C31" s="5">
+        <v>56</v>
+      </c>
       <c r="D31" s="5">
-        <v>56</v>
-      </c>
-      <c r="E31" s="5">
         <f t="shared" si="0"/>
         <v>85.800000000000011</v>
       </c>
-      <c r="F31" s="5">
+      <c r="E31" s="5">
         <f t="shared" si="1"/>
         <v>4804.8000000000011</v>
       </c>
+      <c r="F31" s="9">
+        <v>44813</v>
+      </c>
       <c r="G31" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H31" s="9">
         <v>44833</v>
       </c>
-      <c r="I31" s="5">
+      <c r="H31" s="5">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
+      <c r="I31" s="5">
+        <v>10</v>
+      </c>
       <c r="J31" s="5">
-        <v>10</v>
-      </c>
-      <c r="K31" s="5">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="L31" s="5">
+      <c r="K31" s="5">
         <f t="shared" si="4"/>
         <v>5004.8000000000011</v>
       </c>
@@ -2889,42 +2860,41 @@
       <c r="AT31" s="6"/>
     </row>
     <row r="32" spans="1:46" ht="15.75">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5">
+      <c r="A32" s="5">
         <v>30</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="8">
+      <c r="C32" s="8">
         <v>55.5</v>
       </c>
-      <c r="E32" s="5">
+      <c r="D32" s="5">
         <f t="shared" si="0"/>
         <v>85.800000000000011</v>
       </c>
-      <c r="F32" s="5">
+      <c r="E32" s="5">
         <f t="shared" si="1"/>
         <v>4761.9000000000005</v>
       </c>
+      <c r="F32" s="9">
+        <v>44813</v>
+      </c>
       <c r="G32" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H32" s="9">
         <v>44834</v>
       </c>
-      <c r="I32" s="5">
+      <c r="H32" s="5">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
+      <c r="I32" s="5">
+        <v>10</v>
+      </c>
       <c r="J32" s="5">
-        <v>10</v>
-      </c>
-      <c r="K32" s="5">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="L32" s="5">
+      <c r="K32" s="5">
         <f t="shared" si="4"/>
         <v>4971.9000000000005</v>
       </c>
@@ -2964,42 +2934,41 @@
       <c r="AT32" s="6"/>
     </row>
     <row r="33" spans="1:46" ht="15.75">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5">
+      <c r="A33" s="5">
         <v>31</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="C33" s="5">
+        <v>55</v>
+      </c>
       <c r="D33" s="5">
-        <v>55</v>
-      </c>
-      <c r="E33" s="5">
         <f t="shared" si="0"/>
         <v>85.800000000000011</v>
       </c>
-      <c r="F33" s="5">
+      <c r="E33" s="5">
         <f t="shared" si="1"/>
         <v>4719.0000000000009</v>
       </c>
+      <c r="F33" s="9">
+        <v>44813</v>
+      </c>
       <c r="G33" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H33" s="9">
         <v>44835</v>
       </c>
-      <c r="I33" s="5">
+      <c r="H33" s="5">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
+      <c r="I33" s="5">
+        <v>10</v>
+      </c>
       <c r="J33" s="5">
-        <v>10</v>
-      </c>
-      <c r="K33" s="5">
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="L33" s="5">
+      <c r="K33" s="5">
         <f t="shared" si="4"/>
         <v>4939.0000000000009</v>
       </c>
@@ -3039,42 +3008,41 @@
       <c r="AT33" s="6"/>
     </row>
     <row r="34" spans="1:46" ht="15.75">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5">
+      <c r="A34" s="5">
         <v>32</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="8">
+      <c r="C34" s="8">
         <v>54.5</v>
       </c>
-      <c r="E34" s="5">
+      <c r="D34" s="5">
         <f t="shared" si="0"/>
         <v>85.800000000000011</v>
       </c>
-      <c r="F34" s="5">
+      <c r="E34" s="5">
         <f t="shared" si="1"/>
         <v>4676.1000000000004</v>
       </c>
+      <c r="F34" s="9">
+        <v>44813</v>
+      </c>
       <c r="G34" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H34" s="9">
         <v>44836</v>
       </c>
-      <c r="I34" s="5">
+      <c r="H34" s="5">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
+      <c r="I34" s="5">
+        <v>10</v>
+      </c>
       <c r="J34" s="5">
-        <v>10</v>
-      </c>
-      <c r="K34" s="5">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="L34" s="5">
+      <c r="K34" s="5">
         <f t="shared" si="4"/>
         <v>4906.1000000000004</v>
       </c>
@@ -3114,42 +3082,41 @@
       <c r="AT34" s="6"/>
     </row>
     <row r="35" spans="1:46" ht="15.75">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5">
+      <c r="A35" s="5">
         <v>33</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="C35" s="5">
+        <v>54</v>
+      </c>
       <c r="D35" s="5">
-        <v>54</v>
+        <f t="shared" ref="D12:D38" si="5">78*1.1/2</f>
+        <v>42.900000000000006</v>
       </c>
       <c r="E35" s="5">
-        <f t="shared" ref="E12:E38" si="5">78*1.1/2</f>
-        <v>42.900000000000006</v>
-      </c>
-      <c r="F35" s="5">
         <f t="shared" si="1"/>
         <v>2316.6000000000004</v>
       </c>
+      <c r="F35" s="9">
+        <v>44813</v>
+      </c>
       <c r="G35" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H35" s="9">
         <v>44837</v>
       </c>
-      <c r="I35" s="5">
+      <c r="H35" s="5">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
+      <c r="I35" s="5">
+        <v>10</v>
+      </c>
       <c r="J35" s="5">
-        <v>10</v>
-      </c>
-      <c r="K35" s="5">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="L35" s="5">
+      <c r="K35" s="5">
         <f t="shared" si="4"/>
         <v>2556.6000000000004</v>
       </c>
@@ -3189,42 +3156,41 @@
       <c r="AT35" s="6"/>
     </row>
     <row r="36" spans="1:46" ht="15.75">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5">
+      <c r="A36" s="5">
         <v>34</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="B36" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="8">
+      <c r="C36" s="8">
         <v>53.5</v>
       </c>
-      <c r="E36" s="5">
+      <c r="D36" s="5">
         <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
-      <c r="F36" s="5">
+      <c r="E36" s="5">
         <f t="shared" si="1"/>
         <v>2295.15</v>
       </c>
+      <c r="F36" s="9">
+        <v>44813</v>
+      </c>
       <c r="G36" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H36" s="9">
         <v>44838</v>
       </c>
-      <c r="I36" s="5">
+      <c r="H36" s="5">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
+      <c r="I36" s="5">
+        <v>10</v>
+      </c>
       <c r="J36" s="5">
-        <v>10</v>
-      </c>
-      <c r="K36" s="5">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="L36" s="5">
+      <c r="K36" s="5">
         <f t="shared" si="4"/>
         <v>2545.15</v>
       </c>
@@ -3264,42 +3230,41 @@
       <c r="AT36" s="6"/>
     </row>
     <row r="37" spans="1:46" ht="15.75">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5">
+      <c r="A37" s="5">
         <v>35</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="B37" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="C37" s="5">
+        <v>53</v>
+      </c>
       <c r="D37" s="5">
-        <v>53</v>
-      </c>
-      <c r="E37" s="5">
         <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
-      <c r="F37" s="5">
+      <c r="E37" s="5">
         <f t="shared" si="1"/>
         <v>2273.7000000000003</v>
       </c>
+      <c r="F37" s="9">
+        <v>44813</v>
+      </c>
       <c r="G37" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H37" s="9">
         <v>44839</v>
       </c>
-      <c r="I37" s="5">
+      <c r="H37" s="5">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
+      <c r="I37" s="5">
+        <v>10</v>
+      </c>
       <c r="J37" s="5">
-        <v>10</v>
-      </c>
-      <c r="K37" s="5">
         <f t="shared" si="3"/>
         <v>260</v>
       </c>
-      <c r="L37" s="5">
+      <c r="K37" s="5">
         <f t="shared" si="4"/>
         <v>2533.7000000000003</v>
       </c>
@@ -3339,42 +3304,41 @@
       <c r="AT37" s="6"/>
     </row>
     <row r="38" spans="1:46" ht="15.75">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5">
+      <c r="A38" s="5">
         <v>36</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="C38" s="5">
+        <v>52.5</v>
+      </c>
       <c r="D38" s="5">
-        <v>52.5</v>
-      </c>
-      <c r="E38" s="5">
         <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
-      <c r="F38" s="5">
+      <c r="E38" s="5">
         <f t="shared" si="1"/>
         <v>2252.2500000000005</v>
       </c>
+      <c r="F38" s="9">
+        <v>44813</v>
+      </c>
       <c r="G38" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H38" s="9">
         <v>44840</v>
       </c>
-      <c r="I38" s="5">
+      <c r="H38" s="5">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
+      <c r="I38" s="5">
+        <v>10</v>
+      </c>
       <c r="J38" s="5">
-        <v>10</v>
-      </c>
-      <c r="K38" s="5">
         <f t="shared" si="3"/>
         <v>270</v>
       </c>
-      <c r="L38" s="5">
+      <c r="K38" s="5">
         <f t="shared" si="4"/>
         <v>2522.2500000000005</v>
       </c>
@@ -3465,7 +3429,7 @@
         <v>46</v>
       </c>
       <c r="C40" s="7">
-        <f>SUM(L3:L38)</f>
+        <f>SUM(K3:K38)</f>
         <v>183831.30000000002</v>
       </c>
       <c r="D40" s="6"/>
@@ -3517,7 +3481,7 @@
         <v>47</v>
       </c>
       <c r="C41" s="10">
-        <f>AVERAGE(D3:D38)</f>
+        <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
       <c r="D41" s="5"/>
@@ -3569,7 +3533,7 @@
         <v>27</v>
       </c>
       <c r="C42" s="5">
-        <f>MAX(I3:I38)</f>
+        <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
       <c r="D42" s="5"/>
@@ -3621,7 +3585,7 @@
         <v>48</v>
       </c>
       <c r="C43" s="5">
-        <f>MAX(L3:L38)</f>
+        <f>MAX(K3:K38)</f>
         <v>6006.0000000000009</v>
       </c>
       <c r="D43" s="5"/>

--- a/LR3/table_1_78.xlsx
+++ b/LR3/table_1_78.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0111E50-CF1B-48EE-ACEC-656C22020488}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2C489C-6D75-40C1-AC29-E1655B90E2D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -151,18 +151,6 @@
     <t>Итого</t>
   </si>
   <si>
-    <t>Общая сумма</t>
-  </si>
-  <si>
-    <t>Средняя площадь</t>
-  </si>
-  <si>
-    <t>Максимальная сумма к оплате</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки</t>
-  </si>
-  <si>
     <t>Площадь, кв.м.</t>
   </si>
   <si>
@@ -173,6 +161,18 @@
   </si>
   <si>
     <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общая сумма, руб. </t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Максимальная сумма к оплате, руб.</t>
   </si>
 </sst>
 </file>
@@ -181,7 +181,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$₽-419]_-;\-* #,##0.00\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$₽-419]_-;\-* #,##0.00\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -238,8 +238,8 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -560,10 +560,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>38</v>
@@ -575,10 +575,10 @@
         <v>40</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>41</v>
@@ -598,7 +598,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>IF((A3/3)&lt;9, 78*1.1, 14/2)</f>
+        <f>$A$1*1.1</f>
         <v>85.800000000000011</v>
       </c>
       <c r="E3" s="6">
@@ -641,7 +641,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D38" si="0">IF((A4/3)&lt;9, 78*1.1, 14/2)</f>
+        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
         <v>85.800000000000011</v>
       </c>
       <c r="E4" s="6">
@@ -1716,12 +1716,12 @@
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>$A$1*1.1</f>
+        <v>85.800000000000011</v>
       </c>
       <c r="E29" s="6">
         <f t="shared" si="1"/>
-        <v>399</v>
+        <v>4890.6000000000004</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" si="2"/>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="K29" s="8">
         <f t="shared" si="5"/>
-        <v>579</v>
+        <v>5070.6000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1760,11 +1760,11 @@
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>85.800000000000011</v>
       </c>
       <c r="E30" s="6">
         <f t="shared" si="1"/>
-        <v>395.5</v>
+        <v>4847.7000000000007</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" si="2"/>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="K30" s="8">
         <f t="shared" si="5"/>
-        <v>585.5</v>
+        <v>5037.7000000000007</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1803,11 +1803,11 @@
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>85.800000000000011</v>
       </c>
       <c r="E31" s="6">
         <f t="shared" si="1"/>
-        <v>392</v>
+        <v>4804.8000000000011</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" si="2"/>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="K31" s="8">
         <f t="shared" si="5"/>
-        <v>592</v>
+        <v>5004.8000000000011</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1846,11 +1846,11 @@
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>85.800000000000011</v>
       </c>
       <c r="E32" s="6">
         <f t="shared" si="1"/>
-        <v>388.5</v>
+        <v>4761.9000000000005</v>
       </c>
       <c r="F32" s="4">
         <f t="shared" si="2"/>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="K32" s="8">
         <f t="shared" si="5"/>
-        <v>598.5</v>
+        <v>4971.9000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1889,11 +1889,11 @@
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>85.800000000000011</v>
       </c>
       <c r="E33" s="6">
         <f t="shared" si="1"/>
-        <v>385</v>
+        <v>4719.0000000000009</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" si="2"/>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="K33" s="8">
         <f t="shared" si="5"/>
-        <v>605</v>
+        <v>4939.0000000000009</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1931,12 +1931,12 @@
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>$A$1*1.1</f>
+        <v>85.800000000000011</v>
       </c>
       <c r="E34" s="6">
         <f t="shared" si="1"/>
-        <v>381.5</v>
+        <v>4676.1000000000004</v>
       </c>
       <c r="F34" s="4">
         <f t="shared" si="2"/>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="K34" s="8">
         <f t="shared" si="5"/>
-        <v>611.5</v>
+        <v>4906.1000000000004</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1974,12 +1974,12 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>$A$1*1.1/2</f>
+        <v>42.900000000000006</v>
       </c>
       <c r="E35" s="6">
         <f t="shared" si="1"/>
-        <v>378</v>
+        <v>2316.6000000000004</v>
       </c>
       <c r="F35" s="4">
         <f t="shared" si="2"/>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="K35" s="8">
         <f t="shared" si="5"/>
-        <v>618</v>
+        <v>2556.6000000000004</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2017,12 +2017,12 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" ref="D36:D38" si="8">$A$1*1.1/2</f>
+        <v>42.900000000000006</v>
       </c>
       <c r="E36" s="6">
         <f t="shared" si="1"/>
-        <v>374.5</v>
+        <v>2295.15</v>
       </c>
       <c r="F36" s="4">
         <f t="shared" si="2"/>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="K36" s="8">
         <f t="shared" si="5"/>
-        <v>624.5</v>
+        <v>2545.15</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2060,12 +2060,12 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>42.900000000000006</v>
       </c>
       <c r="E37" s="6">
         <f t="shared" si="1"/>
-        <v>371</v>
+        <v>2273.7000000000003</v>
       </c>
       <c r="F37" s="4">
         <f t="shared" si="2"/>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="K37" s="8">
         <f t="shared" si="5"/>
-        <v>631</v>
+        <v>2533.7000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2103,12 +2103,12 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>42.900000000000006</v>
       </c>
       <c r="E38" s="6">
         <f t="shared" si="1"/>
-        <v>367.5</v>
+        <v>2252.2500000000005</v>
       </c>
       <c r="F38" s="4">
         <f t="shared" si="2"/>
@@ -2131,21 +2131,21 @@
       </c>
       <c r="K38" s="8">
         <f t="shared" si="5"/>
-        <v>637.5</v>
+        <v>2522.2500000000005</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C40" s="8">
         <f>SUM(K3:K38)</f>
-        <v>149826</v>
+        <v>183831.30000000002</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C43" s="8">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_78.xlsx
+++ b/LR3/table_1_78.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2C489C-6D75-40C1-AC29-E1655B90E2D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{484CA18C-E266-4892-866C-9FF252C45C90}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -136,18 +136,12 @@
     <t>Федько</t>
   </si>
   <si>
-    <t>Сумма</t>
-  </si>
-  <si>
     <t>Срок оплаты</t>
   </si>
   <si>
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Штраф</t>
-  </si>
-  <si>
     <t>Итого</t>
   </si>
   <si>
@@ -173,6 +167,12 @@
   </si>
   <si>
     <t>Максимальная сумма к оплате, руб.</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
   </si>
 </sst>
 </file>
@@ -227,12 +227,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -529,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -538,12 +535,12 @@
     <col min="1" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -552,39 +549,39 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="I2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="J2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -594,43 +591,44 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>70</v>
       </c>
       <c r="D3" s="1">
         <f>$A$1*1.1</f>
         <v>85.800000000000011</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <f>D3*C3</f>
         <v>6006.0000000000009</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <f>DATE(2022,9,9)</f>
         <v>44813</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f>DATE(2022,9,1)</f>
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF(G3&lt;F3,0,G3-F3)</f>
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="8">
-        <v>10</v>
-      </c>
-      <c r="J3" s="8">
+      <c r="I3" s="7">
+        <v>10</v>
+      </c>
+      <c r="J3" s="7">
         <f>H3*I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <f>J3+E3</f>
         <v>6006.0000000000009</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -641,39 +639,40 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="E4" s="6">
-        <f t="shared" ref="E4:E38" si="1">D4*C4</f>
+        <f>D3</f>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E38" si="0">D4*C4</f>
         <v>5963.1</v>
       </c>
-      <c r="F4" s="4">
-        <f t="shared" ref="F4:F38" si="2">DATE(2022,9,9)</f>
-        <v>44813</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:F38" si="1">DATE(2022,9,9)</f>
+        <v>44813</v>
+      </c>
+      <c r="G4" s="3">
         <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="3">IF(G4&lt;F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="2">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="8">
-        <v>10</v>
-      </c>
-      <c r="J4" s="8">
-        <f t="shared" ref="J4:J38" si="4">H4*I4</f>
+      <c r="I4" s="7">
+        <v>10</v>
+      </c>
+      <c r="J4" s="7">
+        <f t="shared" ref="J4:J38" si="3">H4*I4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="8">
-        <f t="shared" ref="K4:K38" si="5">J4+E4</f>
+      <c r="K4" s="7">
+        <f t="shared" ref="K4:K38" si="4">J4+E4</f>
         <v>5963.1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
+        <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -684,39 +683,40 @@
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="E5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D5:D36" si="7">D4</f>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
         <v>5920.2000000000007</v>
       </c>
-      <c r="F5" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" ref="G5:G38" si="7">G4+1</f>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5" s="8">
-        <v>10</v>
-      </c>
-      <c r="J5" s="8">
-        <f t="shared" si="4"/>
+      <c r="I5" s="7">
+        <v>10</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K5" s="8">
-        <f t="shared" si="5"/>
+      <c r="K5" s="7">
+        <f t="shared" si="4"/>
         <v>5920.2000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -727,39 +727,40 @@
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="E6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
         <v>5877.3000000000011</v>
       </c>
-      <c r="F6" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="4">
-        <f t="shared" si="7"/>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="8">
-        <v>10</v>
-      </c>
-      <c r="J6" s="8">
-        <f t="shared" si="4"/>
+      <c r="I6" s="7">
+        <v>10</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K6" s="8">
-        <f t="shared" si="5"/>
+      <c r="K6" s="7">
+        <f t="shared" si="4"/>
         <v>5877.3000000000011</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -770,39 +771,40 @@
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="E7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
         <v>5834.4000000000005</v>
       </c>
-      <c r="F7" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" si="7"/>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="8">
-        <v>10</v>
-      </c>
-      <c r="J7" s="8">
-        <f t="shared" si="4"/>
+      <c r="I7" s="7">
+        <v>10</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="8">
-        <f t="shared" si="5"/>
+      <c r="K7" s="7">
+        <f t="shared" si="4"/>
         <v>5834.4000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -813,39 +815,40 @@
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="E8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
         <v>5791.5000000000009</v>
       </c>
-      <c r="F8" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="4">
-        <f t="shared" si="7"/>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="8">
-        <v>10</v>
-      </c>
-      <c r="J8" s="8">
-        <f t="shared" si="4"/>
+      <c r="I8" s="7">
+        <v>10</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="8">
-        <f t="shared" si="5"/>
+      <c r="K8" s="7">
+        <f t="shared" si="4"/>
         <v>5791.5000000000009</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -856,39 +859,40 @@
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="E9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
         <v>5748.6</v>
       </c>
-      <c r="F9" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" si="7"/>
+      <c r="F9" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="8">
-        <v>10</v>
-      </c>
-      <c r="J9" s="8">
-        <f t="shared" si="4"/>
+      <c r="I9" s="7">
+        <v>10</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="8">
-        <f t="shared" si="5"/>
+      <c r="K9" s="7">
+        <f t="shared" si="4"/>
         <v>5748.6</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -899,39 +903,40 @@
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="E10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
         <v>5705.7000000000007</v>
       </c>
-      <c r="F10" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="4">
-        <f t="shared" si="7"/>
+      <c r="F10" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="8">
-        <v>10</v>
-      </c>
-      <c r="J10" s="8">
-        <f t="shared" si="4"/>
+      <c r="I10" s="7">
+        <v>10</v>
+      </c>
+      <c r="J10" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="8">
-        <f t="shared" si="5"/>
+      <c r="K10" s="7">
+        <f t="shared" si="4"/>
         <v>5705.7000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -942,39 +947,40 @@
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="E11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
         <v>5662.8000000000011</v>
       </c>
-      <c r="F11" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="4">
-        <f t="shared" si="7"/>
+      <c r="F11" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" s="8">
-        <v>10</v>
-      </c>
-      <c r="J11" s="8">
-        <f t="shared" si="4"/>
+      <c r="I11" s="7">
+        <v>10</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="8">
-        <f t="shared" si="5"/>
+      <c r="K11" s="7">
+        <f t="shared" si="4"/>
         <v>5662.8000000000011</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -985,39 +991,40 @@
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="E12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
         <v>5619.9000000000005</v>
       </c>
-      <c r="F12" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="4">
-        <f t="shared" si="7"/>
+      <c r="F12" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I12" s="8">
-        <v>10</v>
-      </c>
-      <c r="J12" s="8">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="8">
-        <f t="shared" si="5"/>
+      <c r="I12" s="7">
+        <v>10</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="7">
+        <f t="shared" si="4"/>
         <v>5629.9000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1028,39 +1035,40 @@
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="E13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
         <v>5577.0000000000009</v>
       </c>
-      <c r="F13" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="7"/>
+      <c r="F13" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I13" s="8">
-        <v>10</v>
-      </c>
-      <c r="J13" s="8">
-        <f t="shared" si="4"/>
+      <c r="I13" s="7">
+        <v>10</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="K13" s="8">
-        <f t="shared" si="5"/>
+      <c r="K13" s="7">
+        <f t="shared" si="4"/>
         <v>5597.0000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1071,39 +1079,40 @@
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="E14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
         <v>5534.1</v>
       </c>
-      <c r="F14" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="4">
-        <f t="shared" si="7"/>
+      <c r="F14" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I14" s="8">
-        <v>10</v>
-      </c>
-      <c r="J14" s="8">
-        <f t="shared" si="4"/>
+      <c r="I14" s="7">
+        <v>10</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="K14" s="8">
-        <f t="shared" si="5"/>
+      <c r="K14" s="7">
+        <f t="shared" si="4"/>
         <v>5564.1</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1114,39 +1123,40 @@
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="E15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
         <v>5491.2000000000007</v>
       </c>
-      <c r="F15" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="4">
-        <f t="shared" si="7"/>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I15" s="8">
-        <v>10</v>
-      </c>
-      <c r="J15" s="8">
-        <f t="shared" si="4"/>
+      <c r="I15" s="7">
+        <v>10</v>
+      </c>
+      <c r="J15" s="7">
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="K15" s="8">
-        <f t="shared" si="5"/>
+      <c r="K15" s="7">
+        <f t="shared" si="4"/>
         <v>5531.2000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1157,39 +1167,40 @@
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="E16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="0"/>
         <v>5448.3000000000011</v>
       </c>
-      <c r="F16" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="4">
-        <f t="shared" si="7"/>
+      <c r="F16" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I16" s="8">
-        <v>10</v>
-      </c>
-      <c r="J16" s="8">
-        <f t="shared" si="4"/>
+      <c r="I16" s="7">
+        <v>10</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K16" s="8">
-        <f t="shared" si="5"/>
+      <c r="K16" s="7">
+        <f t="shared" si="4"/>
         <v>5498.3000000000011</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1200,39 +1211,40 @@
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="E17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
         <v>5405.4000000000005</v>
       </c>
-      <c r="F17" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="4">
-        <f t="shared" si="7"/>
+      <c r="F17" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I17" s="8">
-        <v>10</v>
-      </c>
-      <c r="J17" s="8">
-        <f t="shared" si="4"/>
+      <c r="I17" s="7">
+        <v>10</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="K17" s="8">
-        <f t="shared" si="5"/>
+      <c r="K17" s="7">
+        <f t="shared" si="4"/>
         <v>5465.4000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1243,39 +1255,40 @@
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="E18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="0"/>
         <v>5362.5000000000009</v>
       </c>
-      <c r="F18" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="4">
-        <f t="shared" si="7"/>
+      <c r="F18" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="I18" s="8">
-        <v>10</v>
-      </c>
-      <c r="J18" s="8">
-        <f t="shared" si="4"/>
+      <c r="I18" s="7">
+        <v>10</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="K18" s="8">
-        <f t="shared" si="5"/>
+      <c r="K18" s="7">
+        <f t="shared" si="4"/>
         <v>5432.5000000000009</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1286,39 +1299,40 @@
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="E19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="0"/>
         <v>5319.6</v>
       </c>
-      <c r="F19" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="4">
-        <f t="shared" si="7"/>
+      <c r="F19" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I19" s="8">
-        <v>10</v>
-      </c>
-      <c r="J19" s="8">
-        <f t="shared" si="4"/>
+      <c r="I19" s="7">
+        <v>10</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="K19" s="8">
-        <f t="shared" si="5"/>
+      <c r="K19" s="7">
+        <f t="shared" si="4"/>
         <v>5399.6</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1329,39 +1343,40 @@
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="E20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="0"/>
         <v>5276.7000000000007</v>
       </c>
-      <c r="F20" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="4">
-        <f t="shared" si="7"/>
+      <c r="F20" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I20" s="8">
-        <v>10</v>
-      </c>
-      <c r="J20" s="8">
-        <f t="shared" si="4"/>
+      <c r="I20" s="7">
+        <v>10</v>
+      </c>
+      <c r="J20" s="7">
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="K20" s="8">
-        <f t="shared" si="5"/>
+      <c r="K20" s="7">
+        <f t="shared" si="4"/>
         <v>5366.7000000000007</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
+        <f>A20+1</f>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1372,39 +1387,40 @@
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="E21" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="0"/>
         <v>5233.8000000000011</v>
       </c>
-      <c r="F21" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="4">
-        <f t="shared" si="7"/>
+      <c r="F21" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="8">
-        <v>10</v>
-      </c>
-      <c r="J21" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="7">
+        <v>10</v>
+      </c>
+      <c r="J21" s="7">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K21" s="8">
-        <f t="shared" si="5"/>
+      <c r="K21" s="7">
+        <f t="shared" si="4"/>
         <v>5333.8000000000011</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1415,39 +1431,40 @@
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="E22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="0"/>
         <v>5190.9000000000005</v>
       </c>
-      <c r="F22" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="4">
-        <f t="shared" si="7"/>
+      <c r="F22" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="I22" s="8">
-        <v>10</v>
-      </c>
-      <c r="J22" s="8">
-        <f t="shared" si="4"/>
+      <c r="I22" s="7">
+        <v>10</v>
+      </c>
+      <c r="J22" s="7">
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="K22" s="8">
-        <f t="shared" si="5"/>
+      <c r="K22" s="7">
+        <f t="shared" si="4"/>
         <v>5300.9000000000005</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1458,39 +1475,40 @@
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="E23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="0"/>
         <v>5148.0000000000009</v>
       </c>
-      <c r="F23" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="4">
-        <f t="shared" si="7"/>
+      <c r="F23" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="I23" s="8">
-        <v>10</v>
-      </c>
-      <c r="J23" s="8">
-        <f t="shared" si="4"/>
+      <c r="I23" s="7">
+        <v>10</v>
+      </c>
+      <c r="J23" s="7">
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="K23" s="8">
-        <f t="shared" si="5"/>
+      <c r="K23" s="7">
+        <f t="shared" si="4"/>
         <v>5268.0000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1501,39 +1519,40 @@
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="E24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="0"/>
         <v>5105.1000000000004</v>
       </c>
-      <c r="F24" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="4">
-        <f t="shared" si="7"/>
+      <c r="F24" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="I24" s="8">
-        <v>10</v>
-      </c>
-      <c r="J24" s="8">
-        <f t="shared" si="4"/>
+      <c r="I24" s="7">
+        <v>10</v>
+      </c>
+      <c r="J24" s="7">
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="K24" s="8">
-        <f t="shared" si="5"/>
+      <c r="K24" s="7">
+        <f t="shared" si="4"/>
         <v>5235.1000000000004</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1544,39 +1563,40 @@
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="E25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="0"/>
         <v>5062.2000000000007</v>
       </c>
-      <c r="F25" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="4">
-        <f t="shared" si="7"/>
+      <c r="F25" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="I25" s="8">
-        <v>10</v>
-      </c>
-      <c r="J25" s="8">
-        <f t="shared" si="4"/>
+      <c r="I25" s="7">
+        <v>10</v>
+      </c>
+      <c r="J25" s="7">
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="K25" s="8">
-        <f t="shared" si="5"/>
+      <c r="K25" s="7">
+        <f t="shared" si="4"/>
         <v>5202.2000000000007</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1587,39 +1607,40 @@
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="E26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="0"/>
         <v>5019.3000000000011</v>
       </c>
-      <c r="F26" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="4">
-        <f t="shared" si="7"/>
+      <c r="F26" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="I26" s="8">
-        <v>10</v>
-      </c>
-      <c r="J26" s="8">
-        <f t="shared" si="4"/>
+      <c r="I26" s="7">
+        <v>10</v>
+      </c>
+      <c r="J26" s="7">
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="K26" s="8">
-        <f t="shared" si="5"/>
+      <c r="K26" s="7">
+        <f t="shared" si="4"/>
         <v>5169.3000000000011</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1630,39 +1651,40 @@
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="E27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="0"/>
         <v>4976.4000000000005</v>
       </c>
-      <c r="F27" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="4">
-        <f t="shared" si="7"/>
+      <c r="F27" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="I27" s="8">
-        <v>10</v>
-      </c>
-      <c r="J27" s="8">
-        <f t="shared" si="4"/>
+      <c r="I27" s="7">
+        <v>10</v>
+      </c>
+      <c r="J27" s="7">
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="K27" s="8">
-        <f t="shared" si="5"/>
+      <c r="K27" s="7">
+        <f t="shared" si="4"/>
         <v>5136.4000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1673,39 +1695,40 @@
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="E28" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="0"/>
         <v>4933.5000000000009</v>
       </c>
-      <c r="F28" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="4">
-        <f t="shared" si="7"/>
+      <c r="F28" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="I28" s="8">
-        <v>10</v>
-      </c>
-      <c r="J28" s="8">
-        <f t="shared" si="4"/>
+      <c r="I28" s="7">
+        <v>10</v>
+      </c>
+      <c r="J28" s="7">
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="K28" s="8">
-        <f t="shared" si="5"/>
+      <c r="K28" s="7">
+        <f t="shared" si="4"/>
         <v>5103.5000000000009</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1716,39 +1739,40 @@
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f>$A$1*1.1</f>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="E29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="0"/>
         <v>4890.6000000000004</v>
       </c>
-      <c r="F29" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="4">
-        <f t="shared" si="7"/>
+      <c r="F29" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I29" s="8">
-        <v>10</v>
-      </c>
-      <c r="J29" s="8">
-        <f t="shared" si="4"/>
+      <c r="I29" s="7">
+        <v>10</v>
+      </c>
+      <c r="J29" s="7">
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="K29" s="8">
-        <f t="shared" si="5"/>
+      <c r="K29" s="7">
+        <f t="shared" si="4"/>
         <v>5070.6000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1759,39 +1783,40 @@
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="E30" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="0"/>
         <v>4847.7000000000007</v>
       </c>
-      <c r="F30" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="4">
-        <f t="shared" si="7"/>
+      <c r="F30" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="I30" s="8">
-        <v>10</v>
-      </c>
-      <c r="J30" s="8">
-        <f t="shared" si="4"/>
+      <c r="I30" s="7">
+        <v>10</v>
+      </c>
+      <c r="J30" s="7">
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="K30" s="8">
-        <f t="shared" si="5"/>
+      <c r="K30" s="7">
+        <f t="shared" si="4"/>
         <v>5037.7000000000007</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1802,39 +1827,40 @@
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="E31" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="0"/>
         <v>4804.8000000000011</v>
       </c>
-      <c r="F31" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="4">
-        <f t="shared" si="7"/>
+      <c r="F31" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I31" s="8">
-        <v>10</v>
-      </c>
-      <c r="J31" s="8">
-        <f t="shared" si="4"/>
+      <c r="I31" s="7">
+        <v>10</v>
+      </c>
+      <c r="J31" s="7">
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="K31" s="8">
-        <f t="shared" si="5"/>
+      <c r="K31" s="7">
+        <f t="shared" si="4"/>
         <v>5004.8000000000011</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1845,39 +1871,40 @@
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="E32" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="0"/>
         <v>4761.9000000000005</v>
       </c>
-      <c r="F32" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="4">
-        <f t="shared" si="7"/>
+      <c r="F32" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="I32" s="8">
-        <v>10</v>
-      </c>
-      <c r="J32" s="8">
-        <f t="shared" si="4"/>
+      <c r="I32" s="7">
+        <v>10</v>
+      </c>
+      <c r="J32" s="7">
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="K32" s="8">
-        <f t="shared" si="5"/>
+      <c r="K32" s="7">
+        <f t="shared" si="4"/>
         <v>4971.9000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1888,39 +1915,40 @@
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="0"/>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="E33" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="0"/>
         <v>4719.0000000000009</v>
       </c>
-      <c r="F33" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="4">
-        <f t="shared" si="7"/>
+      <c r="F33" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="I33" s="8">
-        <v>10</v>
-      </c>
-      <c r="J33" s="8">
-        <f t="shared" si="4"/>
+      <c r="I33" s="7">
+        <v>10</v>
+      </c>
+      <c r="J33" s="7">
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="K33" s="8">
-        <f t="shared" si="5"/>
+      <c r="K33" s="7">
+        <f t="shared" si="4"/>
         <v>4939.0000000000009</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1931,39 +1959,40 @@
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f>$A$1*1.1</f>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="E34" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="0"/>
         <v>4676.1000000000004</v>
       </c>
-      <c r="F34" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="4">
-        <f t="shared" si="7"/>
+      <c r="F34" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I34" s="8">
-        <v>10</v>
-      </c>
-      <c r="J34" s="8">
-        <f t="shared" si="4"/>
+      <c r="I34" s="7">
+        <v>10</v>
+      </c>
+      <c r="J34" s="7">
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="K34" s="8">
-        <f t="shared" si="5"/>
+      <c r="K34" s="7">
+        <f t="shared" si="4"/>
         <v>4906.1000000000004</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1974,39 +2003,40 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>$A$1*1.1/2</f>
-        <v>42.900000000000006</v>
-      </c>
-      <c r="E35" s="6">
-        <f t="shared" si="1"/>
-        <v>2316.6000000000004</v>
-      </c>
-      <c r="F35" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="7"/>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="0"/>
+        <v>4633.2000000000007</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="I35" s="8">
-        <v>10</v>
-      </c>
-      <c r="J35" s="8">
-        <f t="shared" si="4"/>
+      <c r="I35" s="7">
+        <v>10</v>
+      </c>
+      <c r="J35" s="7">
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="K35" s="8">
-        <f t="shared" si="5"/>
-        <v>2556.6000000000004</v>
+      <c r="K35" s="7">
+        <f t="shared" si="4"/>
+        <v>4873.2000000000007</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2017,39 +2047,40 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="8">$A$1*1.1/2</f>
-        <v>42.900000000000006</v>
-      </c>
-      <c r="E36" s="6">
-        <f t="shared" si="1"/>
-        <v>2295.15</v>
-      </c>
-      <c r="F36" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="7"/>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="0"/>
+        <v>4590.3</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="I36" s="8">
-        <v>10</v>
-      </c>
-      <c r="J36" s="8">
-        <f t="shared" si="4"/>
+      <c r="I36" s="7">
+        <v>10</v>
+      </c>
+      <c r="J36" s="7">
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="K36" s="8">
-        <f t="shared" si="5"/>
-        <v>2545.15</v>
+      <c r="K36" s="7">
+        <f t="shared" si="4"/>
+        <v>4840.3</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2060,39 +2091,40 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="8"/>
+        <f>D3/2</f>
         <v>42.900000000000006</v>
       </c>
-      <c r="E37" s="6">
-        <f t="shared" si="1"/>
+      <c r="E37" s="5">
+        <f t="shared" si="0"/>
         <v>2273.7000000000003</v>
       </c>
-      <c r="F37" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="4">
-        <f t="shared" si="7"/>
+      <c r="F37" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="I37" s="8">
-        <v>10</v>
-      </c>
-      <c r="J37" s="8">
-        <f t="shared" si="4"/>
+      <c r="I37" s="7">
+        <v>10</v>
+      </c>
+      <c r="J37" s="7">
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
-      <c r="K37" s="8">
-        <f t="shared" si="5"/>
+      <c r="K37" s="7">
+        <f t="shared" si="4"/>
         <v>2533.7000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2103,49 +2135,49 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="8"/>
+        <f>D4/2</f>
         <v>42.900000000000006</v>
       </c>
-      <c r="E38" s="6">
-        <f t="shared" si="1"/>
+      <c r="E38" s="5">
+        <f t="shared" si="0"/>
         <v>2252.2500000000005</v>
       </c>
-      <c r="F38" s="4">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="4">
-        <f t="shared" si="7"/>
+      <c r="F38" s="3">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="I38" s="8">
-        <v>10</v>
-      </c>
-      <c r="J38" s="8">
-        <f t="shared" si="4"/>
+      <c r="I38" s="7">
+        <v>10</v>
+      </c>
+      <c r="J38" s="7">
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
-      <c r="K38" s="8">
-        <f t="shared" si="5"/>
+      <c r="K38" s="7">
+        <f t="shared" si="4"/>
         <v>2522.2500000000005</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="8">
-        <f>SUM(K3:K38)</f>
-        <v>183831.30000000002</v>
+        <v>45</v>
+      </c>
+      <c r="C40" s="7">
+        <f>FLOOR(SUM(K3:K38),1)</f>
+        <v>188443</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2154,7 +2186,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2163,9 +2195,9 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="8">
+        <v>48</v>
+      </c>
+      <c r="C43" s="7">
         <f>MAX(K3:K38)</f>
         <v>6006.0000000000009</v>
       </c>

--- a/LR3/table_1_78.xlsx
+++ b/LR3/table_1_78.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{484CA18C-E266-4892-866C-9FF252C45C90}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3B2AD9-47B6-4E43-8C57-F1324B61B9EC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2003,12 +2003,12 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="7"/>
-        <v>85.800000000000011</v>
+        <f>$D$3/2</f>
+        <v>42.900000000000006</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" si="0"/>
-        <v>4633.2000000000007</v>
+        <v>2316.6000000000004</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="1"/>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="K35" s="7">
         <f t="shared" si="4"/>
-        <v>4873.2000000000007</v>
+        <v>2556.6000000000004</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2047,12 +2047,12 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="7"/>
-        <v>85.800000000000011</v>
+        <f t="shared" ref="D36:D38" si="9">$D$3/2</f>
+        <v>42.900000000000006</v>
       </c>
       <c r="E36" s="5">
         <f t="shared" si="0"/>
-        <v>4590.3</v>
+        <v>2295.15</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" si="1"/>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="K36" s="7">
         <f t="shared" si="4"/>
-        <v>4840.3</v>
+        <v>2545.15</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2091,7 +2091,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f>D3/2</f>
+        <f t="shared" si="9"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E37" s="5">
@@ -2135,7 +2135,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f>D4/2</f>
+        <f t="shared" si="9"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E38" s="5">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="C40" s="7">
         <f>FLOOR(SUM(K3:K38),1)</f>
-        <v>188443</v>
+        <v>183831</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">

--- a/LR3/table_1_78.xlsx
+++ b/LR3/table_1_78.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3B2AD9-47B6-4E43-8C57-F1324B61B9EC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAA9B61-353B-4FB7-AF8F-66C2D05A5662}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -683,7 +683,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D36" si="7">D4</f>
+        <f t="shared" ref="D5:D34" si="7">D4</f>
         <v>85.800000000000011</v>
       </c>
       <c r="E5" s="5">
@@ -2003,12 +2003,12 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>$D$3/2</f>
-        <v>42.900000000000006</v>
+        <f>$D$3/3</f>
+        <v>28.600000000000005</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" si="0"/>
-        <v>2316.6000000000004</v>
+        <v>1544.4000000000003</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="1"/>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="K35" s="7">
         <f t="shared" si="4"/>
-        <v>2556.6000000000004</v>
+        <v>1784.4000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2047,12 +2047,12 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="9">$D$3/2</f>
-        <v>42.900000000000006</v>
+        <f t="shared" ref="D36:D38" si="9">$D$3/3</f>
+        <v>28.600000000000005</v>
       </c>
       <c r="E36" s="5">
         <f t="shared" si="0"/>
-        <v>2295.15</v>
+        <v>1530.1000000000004</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" si="1"/>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="K36" s="7">
         <f t="shared" si="4"/>
-        <v>2545.15</v>
+        <v>1780.1000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2092,11 +2092,11 @@
       </c>
       <c r="D37" s="1">
         <f t="shared" si="9"/>
-        <v>42.900000000000006</v>
+        <v>28.600000000000005</v>
       </c>
       <c r="E37" s="5">
         <f t="shared" si="0"/>
-        <v>2273.7000000000003</v>
+        <v>1515.8000000000002</v>
       </c>
       <c r="F37" s="3">
         <f t="shared" si="1"/>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="K37" s="7">
         <f t="shared" si="4"/>
-        <v>2533.7000000000003</v>
+        <v>1775.8000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2136,11 +2136,11 @@
       </c>
       <c r="D38" s="1">
         <f t="shared" si="9"/>
-        <v>42.900000000000006</v>
+        <v>28.600000000000005</v>
       </c>
       <c r="E38" s="5">
         <f t="shared" si="0"/>
-        <v>2252.2500000000005</v>
+        <v>1501.5000000000002</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" si="1"/>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="K38" s="7">
         <f t="shared" si="4"/>
-        <v>2522.2500000000005</v>
+        <v>1771.5000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="C40" s="7">
         <f>FLOOR(SUM(K3:K38),1)</f>
-        <v>183831</v>
+        <v>180785</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">

--- a/LR3/table_1_78.xlsx
+++ b/LR3/table_1_78.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAA9B61-353B-4FB7-AF8F-66C2D05A5662}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB43CE0-A1FD-4451-B7F8-A4339C4BB9D6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2003,12 +2003,12 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>$D$3/3</f>
-        <v>28.600000000000005</v>
+        <f>D3/2</f>
+        <v>42.900000000000006</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" si="0"/>
-        <v>1544.4000000000003</v>
+        <v>2316.6000000000004</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="1"/>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="K35" s="7">
         <f t="shared" si="4"/>
-        <v>1784.4000000000003</v>
+        <v>2556.6000000000004</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2047,12 +2047,12 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="9">$D$3/3</f>
-        <v>28.600000000000005</v>
+        <f>D3/2</f>
+        <v>42.900000000000006</v>
       </c>
       <c r="E36" s="5">
         <f t="shared" si="0"/>
-        <v>1530.1000000000004</v>
+        <v>2295.15</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" si="1"/>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="K36" s="7">
         <f t="shared" si="4"/>
-        <v>1780.1000000000004</v>
+        <v>2545.15</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2091,12 +2091,12 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="9"/>
-        <v>28.600000000000005</v>
+        <f>D3/2</f>
+        <v>42.900000000000006</v>
       </c>
       <c r="E37" s="5">
         <f t="shared" si="0"/>
-        <v>1515.8000000000002</v>
+        <v>2273.7000000000003</v>
       </c>
       <c r="F37" s="3">
         <f t="shared" si="1"/>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="K37" s="7">
         <f t="shared" si="4"/>
-        <v>1775.8000000000002</v>
+        <v>2533.7000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2135,12 +2135,12 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="9"/>
-        <v>28.600000000000005</v>
+        <f>D3/2</f>
+        <v>42.900000000000006</v>
       </c>
       <c r="E38" s="5">
         <f t="shared" si="0"/>
-        <v>1501.5000000000002</v>
+        <v>2252.2500000000005</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" si="1"/>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="K38" s="7">
         <f t="shared" si="4"/>
-        <v>1771.5000000000002</v>
+        <v>2522.2500000000005</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="C40" s="7">
         <f>FLOOR(SUM(K3:K38),1)</f>
-        <v>180785</v>
+        <v>183831</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">

--- a/LR3/table_1_78.xlsx
+++ b/LR3/table_1_78.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB43CE0-A1FD-4451-B7F8-A4339C4BB9D6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC33E2AA-D3B2-48E3-B446-3318085762C4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2003,12 +2003,12 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>D3/2</f>
-        <v>42.900000000000006</v>
+        <f>D3/3</f>
+        <v>28.600000000000005</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" si="0"/>
-        <v>2316.6000000000004</v>
+        <v>1544.4000000000003</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="1"/>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="K35" s="7">
         <f t="shared" si="4"/>
-        <v>2556.6000000000004</v>
+        <v>1784.4000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2047,12 +2047,12 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f>D3/2</f>
-        <v>42.900000000000006</v>
+        <f>D3/3</f>
+        <v>28.600000000000005</v>
       </c>
       <c r="E36" s="5">
         <f t="shared" si="0"/>
-        <v>2295.15</v>
+        <v>1530.1000000000004</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" si="1"/>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="K36" s="7">
         <f t="shared" si="4"/>
-        <v>2545.15</v>
+        <v>1780.1000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2091,12 +2091,12 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f>D3/2</f>
-        <v>42.900000000000006</v>
+        <f>D3/3</f>
+        <v>28.600000000000005</v>
       </c>
       <c r="E37" s="5">
         <f t="shared" si="0"/>
-        <v>2273.7000000000003</v>
+        <v>1515.8000000000002</v>
       </c>
       <c r="F37" s="3">
         <f t="shared" si="1"/>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="K37" s="7">
         <f t="shared" si="4"/>
-        <v>2533.7000000000003</v>
+        <v>1775.8000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2135,12 +2135,12 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f>D3/2</f>
-        <v>42.900000000000006</v>
+        <f>D3/3</f>
+        <v>28.600000000000005</v>
       </c>
       <c r="E38" s="5">
         <f t="shared" si="0"/>
-        <v>2252.2500000000005</v>
+        <v>1501.5000000000002</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" si="1"/>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="K38" s="7">
         <f t="shared" si="4"/>
-        <v>2522.2500000000005</v>
+        <v>1771.5000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="C40" s="7">
         <f>FLOOR(SUM(K3:K38),1)</f>
-        <v>183831</v>
+        <v>180785</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">

--- a/LR3/table_1_78.xlsx
+++ b/LR3/table_1_78.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC33E2AA-D3B2-48E3-B446-3318085762C4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BEE397-3F3F-4144-B001-196408FA2A3A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2003,12 +2003,12 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>D3/3</f>
-        <v>28.600000000000005</v>
+        <f>($A$1*1.1)/2</f>
+        <v>42.900000000000006</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" si="0"/>
-        <v>1544.4000000000003</v>
+        <v>2316.6000000000004</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="1"/>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="K35" s="7">
         <f t="shared" si="4"/>
-        <v>1784.4000000000003</v>
+        <v>2556.6000000000004</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2047,12 +2047,12 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f>D3/3</f>
-        <v>28.600000000000005</v>
+        <f t="shared" ref="D36:D38" si="9">($A$1*1.1)/2</f>
+        <v>42.900000000000006</v>
       </c>
       <c r="E36" s="5">
         <f t="shared" si="0"/>
-        <v>1530.1000000000004</v>
+        <v>2295.15</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" si="1"/>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="K36" s="7">
         <f t="shared" si="4"/>
-        <v>1780.1000000000004</v>
+        <v>2545.15</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2091,12 +2091,12 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f>D3/3</f>
-        <v>28.600000000000005</v>
+        <f t="shared" si="9"/>
+        <v>42.900000000000006</v>
       </c>
       <c r="E37" s="5">
         <f t="shared" si="0"/>
-        <v>1515.8000000000002</v>
+        <v>2273.7000000000003</v>
       </c>
       <c r="F37" s="3">
         <f t="shared" si="1"/>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="K37" s="7">
         <f t="shared" si="4"/>
-        <v>1775.8000000000002</v>
+        <v>2533.7000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2135,12 +2135,12 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f>D3/3</f>
-        <v>28.600000000000005</v>
+        <f t="shared" si="9"/>
+        <v>42.900000000000006</v>
       </c>
       <c r="E38" s="5">
         <f t="shared" si="0"/>
-        <v>1501.5000000000002</v>
+        <v>2252.2500000000005</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" si="1"/>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="K38" s="7">
         <f t="shared" si="4"/>
-        <v>1771.5000000000002</v>
+        <v>2522.2500000000005</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="C40" s="7">
         <f>FLOOR(SUM(K3:K38),1)</f>
-        <v>180785</v>
+        <v>183831</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">

--- a/LR3/table_1_78.xlsx
+++ b/LR3/table_1_78.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BEE397-3F3F-4144-B001-196408FA2A3A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E905B59-F964-4477-949B-87359F219BBC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2003,7 +2003,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>($A$1*1.1)/2</f>
+        <f>$D$3/2</f>
         <v>42.900000000000006</v>
       </c>
       <c r="E35" s="5">
@@ -2047,7 +2047,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="9">($A$1*1.1)/2</f>
+        <f t="shared" ref="D36:D38" si="9">$D$3/2</f>
         <v>42.900000000000006</v>
       </c>
       <c r="E36" s="5">

--- a/LR3/table_1_78.xlsx
+++ b/LR3/table_1_78.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E905B59-F964-4477-949B-87359F219BBC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381042FA-630B-4CC2-ADE3-31E57B4109A2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -699,7 +699,7 @@
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(G5&gt;F5,G5-F5,0)</f>
         <v>0</v>
       </c>
       <c r="I5" s="7">
@@ -2095,7 +2095,7 @@
         <v>42.900000000000006</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" si="0"/>
+        <f>D37*C37</f>
         <v>2273.7000000000003</v>
       </c>
       <c r="F37" s="3">

--- a/LR3/table_1_78.xlsx
+++ b/LR3/table_1_78.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1962201D-6F7B-4733-AB8A-89B39899C7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5318FFC-1F92-43AE-9700-50E7443DADD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
@@ -647,7 +647,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f>$D$3</f>
+        <f>D3</f>
         <v>85.800000000000011</v>
       </c>
       <c r="E4" s="1">
@@ -692,7 +692,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D38" si="6">$D$3</f>
+        <f t="shared" ref="D5:D34" si="6">D4</f>
         <v>85.800000000000011</v>
       </c>
       <c r="E5" s="1">
@@ -2042,7 +2042,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>$D$3/2</f>
+        <f>D3/2</f>
         <v>42.900000000000006</v>
       </c>
       <c r="E35" s="1">
@@ -2087,7 +2087,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">$D$3/2</f>
+        <f t="shared" ref="D36:D38" si="10">D4/2</f>
         <v>42.900000000000006</v>
       </c>
       <c r="E36" s="1">

--- a/LR3/table_1_78.xlsx
+++ b/LR3/table_1_78.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5318FFC-1F92-43AE-9700-50E7443DADD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9083C530-696A-4CD9-A22C-D916B73ED6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
@@ -692,7 +692,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D34" si="6">D4</f>
+        <f t="shared" ref="D5:D38" si="6">D4</f>
         <v>85.800000000000011</v>
       </c>
       <c r="E5" s="1">
@@ -2087,7 +2087,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">D4/2</f>
+        <f>D3/2</f>
         <v>42.900000000000006</v>
       </c>
       <c r="E36" s="1">
@@ -2132,7 +2132,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>42.900000000000006</v>
       </c>
       <c r="E37" s="1">
@@ -2177,7 +2177,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>42.900000000000006</v>
       </c>
       <c r="E38" s="1">

--- a/LR3/table_1_78.xlsx
+++ b/LR3/table_1_78.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381042FA-630B-4CC2-ADE3-31E57B4109A2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5E272C-8304-455B-BC44-BF1FF5D28F57}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,9 +91,6 @@
     <t>Редькин</t>
   </si>
   <si>
-    <t>Сайфуллин</t>
-  </si>
-  <si>
     <t>Сеняшина</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Итого</t>
-  </si>
-  <si>
     <t>Площадь, кв.м.</t>
   </si>
   <si>
@@ -173,6 +167,12 @@
   </si>
   <si>
     <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Сайфулин</t>
   </si>
 </sst>
 </file>
@@ -183,7 +183,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$₽-419]_-;\-* #,##0.00\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +201,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -227,7 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -243,6 +250,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
@@ -526,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -557,38 +565,38 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="I2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="J2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4">
@@ -631,7 +639,7 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1">
@@ -675,7 +683,7 @@
         <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1">
@@ -719,7 +727,7 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
@@ -763,7 +771,7 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1">
@@ -807,7 +815,7 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1">
@@ -851,7 +859,7 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1">
@@ -895,7 +903,7 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1">
@@ -939,7 +947,7 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1">
@@ -983,7 +991,7 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="1">
@@ -1027,7 +1035,7 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1">
@@ -1071,7 +1079,7 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="1">
@@ -1115,7 +1123,7 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="1">
@@ -1159,7 +1167,7 @@
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="1">
@@ -1203,7 +1211,7 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="1">
@@ -1247,7 +1255,7 @@
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="1">
@@ -1291,7 +1299,7 @@
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="1">
@@ -1335,7 +1343,7 @@
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="1">
@@ -1379,7 +1387,7 @@
         <f>A20+1</f>
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="1">
@@ -1423,7 +1431,7 @@
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="1">
@@ -1467,7 +1475,7 @@
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="1">
@@ -1511,8 +1519,8 @@
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>23</v>
+      <c r="B24" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="6"/>
@@ -1555,8 +1563,8 @@
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>24</v>
+      <c r="B25" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="6"/>
@@ -1599,8 +1607,8 @@
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>25</v>
+      <c r="B26" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="6"/>
@@ -1643,8 +1651,8 @@
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>26</v>
+      <c r="B27" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="6"/>
@@ -1687,8 +1695,8 @@
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>27</v>
+      <c r="B28" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="6"/>
@@ -1731,8 +1739,8 @@
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>28</v>
+      <c r="B29" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="6"/>
@@ -1775,8 +1783,8 @@
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>29</v>
+      <c r="B30" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="6"/>
@@ -1819,8 +1827,8 @@
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>30</v>
+      <c r="B31" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="6"/>
@@ -1863,8 +1871,8 @@
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>31</v>
+      <c r="B32" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="6"/>
@@ -1907,8 +1915,8 @@
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>32</v>
+      <c r="B33" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="6"/>
@@ -1951,8 +1959,8 @@
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>33</v>
+      <c r="B34" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="6"/>
@@ -1995,8 +2003,8 @@
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>34</v>
+      <c r="B35" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="6"/>
@@ -2039,8 +2047,8 @@
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>35</v>
+      <c r="B36" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="6"/>
@@ -2083,8 +2091,8 @@
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>36</v>
+      <c r="B37" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="6"/>
@@ -2127,8 +2135,8 @@
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>37</v>
+      <c r="B38" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="6"/>
@@ -2168,7 +2176,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C40" s="7">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2177,7 +2185,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2186,7 +2194,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2195,7 +2203,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C43" s="7">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_78.xlsx
+++ b/LR3/table_1_78.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5E272C-8304-455B-BC44-BF1FF5D28F57}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F45348-D4DE-4237-BE4E-B41AA678D2E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,9 +25,6 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
     <t>Аллаяров</t>
   </si>
   <si>
@@ -173,6 +170,9 @@
   </si>
   <si>
     <t>Сайфулин</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
   </si>
 </sst>
 </file>
@@ -183,7 +183,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$₽-419]_-;\-* #,##0.00\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,13 +201,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -234,7 +227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -243,14 +236,10 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
@@ -534,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -546,9 +535,9 @@
     <col min="5" max="5" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -558,46 +547,46 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="I2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>2</v>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C3" s="4">
         <v>70</v>
@@ -622,14 +611,14 @@
         <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="7">
-        <v>10</v>
-      </c>
-      <c r="J3" s="7">
+      <c r="I3" s="6">
+        <v>10</v>
+      </c>
+      <c r="J3" s="6">
         <f>H3*I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <f>J3+E3</f>
         <v>6006.0000000000009</v>
       </c>
@@ -639,8 +628,8 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>3</v>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -666,14 +655,14 @@
         <f t="shared" ref="H4:H38" si="2">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="7">
-        <v>10</v>
-      </c>
-      <c r="J4" s="7">
+      <c r="I4" s="6">
+        <v>10</v>
+      </c>
+      <c r="J4" s="6">
         <f t="shared" ref="J4:J38" si="3">H4*I4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <f t="shared" ref="K4:K38" si="4">J4+E4</f>
         <v>5963.1</v>
       </c>
@@ -683,8 +672,8 @@
         <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>4</v>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
@@ -710,14 +699,14 @@
         <f>IF(G5&gt;F5,G5-F5,0)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="7">
-        <v>10</v>
-      </c>
-      <c r="J5" s="7">
+      <c r="I5" s="6">
+        <v>10</v>
+      </c>
+      <c r="J5" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <f t="shared" si="4"/>
         <v>5920.2000000000007</v>
       </c>
@@ -727,8 +716,8 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>5</v>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="6"/>
@@ -754,14 +743,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="7">
-        <v>10</v>
-      </c>
-      <c r="J6" s="7">
+      <c r="I6" s="6">
+        <v>10</v>
+      </c>
+      <c r="J6" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <f t="shared" si="4"/>
         <v>5877.3000000000011</v>
       </c>
@@ -771,8 +760,8 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>6</v>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="6"/>
@@ -798,14 +787,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="7">
-        <v>10</v>
-      </c>
-      <c r="J7" s="7">
+      <c r="I7" s="6">
+        <v>10</v>
+      </c>
+      <c r="J7" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <f t="shared" si="4"/>
         <v>5834.4000000000005</v>
       </c>
@@ -815,8 +804,8 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>7</v>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="6"/>
@@ -842,14 +831,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="7">
-        <v>10</v>
-      </c>
-      <c r="J8" s="7">
+      <c r="I8" s="6">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <f t="shared" si="4"/>
         <v>5791.5000000000009</v>
       </c>
@@ -859,8 +848,8 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>8</v>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="6"/>
@@ -886,14 +875,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="7">
-        <v>10</v>
-      </c>
-      <c r="J9" s="7">
+      <c r="I9" s="6">
+        <v>10</v>
+      </c>
+      <c r="J9" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <f t="shared" si="4"/>
         <v>5748.6</v>
       </c>
@@ -903,8 +892,8 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>9</v>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="6"/>
@@ -930,14 +919,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>10</v>
-      </c>
-      <c r="J10" s="7">
+      <c r="I10" s="6">
+        <v>10</v>
+      </c>
+      <c r="J10" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="6">
         <f t="shared" si="4"/>
         <v>5705.7000000000007</v>
       </c>
@@ -947,8 +936,8 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>10</v>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="6"/>
@@ -974,14 +963,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>10</v>
-      </c>
-      <c r="J11" s="7">
+      <c r="I11" s="6">
+        <v>10</v>
+      </c>
+      <c r="J11" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <f t="shared" si="4"/>
         <v>5662.8000000000011</v>
       </c>
@@ -991,8 +980,8 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>11</v>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="6"/>
@@ -1018,14 +1007,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I12" s="7">
-        <v>10</v>
-      </c>
-      <c r="J12" s="7">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="7">
+      <c r="I12" s="6">
+        <v>10</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="6">
         <f t="shared" si="4"/>
         <v>5629.9000000000005</v>
       </c>
@@ -1035,8 +1024,8 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>12</v>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="6"/>
@@ -1062,14 +1051,14 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I13" s="7">
-        <v>10</v>
-      </c>
-      <c r="J13" s="7">
+      <c r="I13" s="6">
+        <v>10</v>
+      </c>
+      <c r="J13" s="6">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <f t="shared" si="4"/>
         <v>5597.0000000000009</v>
       </c>
@@ -1079,8 +1068,8 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>13</v>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="6"/>
@@ -1106,14 +1095,14 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I14" s="7">
-        <v>10</v>
-      </c>
-      <c r="J14" s="7">
+      <c r="I14" s="6">
+        <v>10</v>
+      </c>
+      <c r="J14" s="6">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <f t="shared" si="4"/>
         <v>5564.1</v>
       </c>
@@ -1123,8 +1112,8 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>14</v>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="6"/>
@@ -1150,14 +1139,14 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I15" s="7">
-        <v>10</v>
-      </c>
-      <c r="J15" s="7">
+      <c r="I15" s="6">
+        <v>10</v>
+      </c>
+      <c r="J15" s="6">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="6">
         <f t="shared" si="4"/>
         <v>5531.2000000000007</v>
       </c>
@@ -1167,8 +1156,8 @@
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>15</v>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="6"/>
@@ -1194,14 +1183,14 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I16" s="7">
-        <v>10</v>
-      </c>
-      <c r="J16" s="7">
+      <c r="I16" s="6">
+        <v>10</v>
+      </c>
+      <c r="J16" s="6">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="6">
         <f t="shared" si="4"/>
         <v>5498.3000000000011</v>
       </c>
@@ -1211,8 +1200,8 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>16</v>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="6"/>
@@ -1238,14 +1227,14 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I17" s="7">
-        <v>10</v>
-      </c>
-      <c r="J17" s="7">
+      <c r="I17" s="6">
+        <v>10</v>
+      </c>
+      <c r="J17" s="6">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="6">
         <f t="shared" si="4"/>
         <v>5465.4000000000005</v>
       </c>
@@ -1255,8 +1244,8 @@
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>17</v>
+      <c r="B18" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="6"/>
@@ -1282,14 +1271,14 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="I18" s="7">
-        <v>10</v>
-      </c>
-      <c r="J18" s="7">
+      <c r="I18" s="6">
+        <v>10</v>
+      </c>
+      <c r="J18" s="6">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="6">
         <f t="shared" si="4"/>
         <v>5432.5000000000009</v>
       </c>
@@ -1299,8 +1288,8 @@
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>18</v>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="6"/>
@@ -1326,14 +1315,14 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I19" s="7">
-        <v>10</v>
-      </c>
-      <c r="J19" s="7">
+      <c r="I19" s="6">
+        <v>10</v>
+      </c>
+      <c r="J19" s="6">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="6">
         <f t="shared" si="4"/>
         <v>5399.6</v>
       </c>
@@ -1343,8 +1332,8 @@
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>19</v>
+      <c r="B20" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="6"/>
@@ -1370,14 +1359,14 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I20" s="7">
-        <v>10</v>
-      </c>
-      <c r="J20" s="7">
+      <c r="I20" s="6">
+        <v>10</v>
+      </c>
+      <c r="J20" s="6">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="6">
         <f t="shared" si="4"/>
         <v>5366.7000000000007</v>
       </c>
@@ -1387,8 +1376,8 @@
         <f>A20+1</f>
         <v>19</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>20</v>
+      <c r="B21" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="6"/>
@@ -1414,14 +1403,14 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="I21" s="7">
-        <v>10</v>
-      </c>
-      <c r="J21" s="7">
+      <c r="I21" s="6">
+        <v>10</v>
+      </c>
+      <c r="J21" s="6">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="6">
         <f t="shared" si="4"/>
         <v>5333.8000000000011</v>
       </c>
@@ -1431,8 +1420,8 @@
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>21</v>
+      <c r="B22" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="6"/>
@@ -1458,14 +1447,14 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="I22" s="7">
-        <v>10</v>
-      </c>
-      <c r="J22" s="7">
+      <c r="I22" s="6">
+        <v>10</v>
+      </c>
+      <c r="J22" s="6">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="6">
         <f t="shared" si="4"/>
         <v>5300.9000000000005</v>
       </c>
@@ -1475,8 +1464,8 @@
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>22</v>
+      <c r="B23" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="6"/>
@@ -1502,14 +1491,14 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="I23" s="7">
-        <v>10</v>
-      </c>
-      <c r="J23" s="7">
+      <c r="I23" s="6">
+        <v>10</v>
+      </c>
+      <c r="J23" s="6">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="6">
         <f t="shared" si="4"/>
         <v>5268.0000000000009</v>
       </c>
@@ -1519,8 +1508,8 @@
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>50</v>
+      <c r="B24" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="6"/>
@@ -1546,14 +1535,14 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="I24" s="7">
-        <v>10</v>
-      </c>
-      <c r="J24" s="7">
+      <c r="I24" s="6">
+        <v>10</v>
+      </c>
+      <c r="J24" s="6">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="6">
         <f t="shared" si="4"/>
         <v>5235.1000000000004</v>
       </c>
@@ -1563,8 +1552,8 @@
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>23</v>
+      <c r="B25" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="6"/>
@@ -1590,14 +1579,14 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="I25" s="7">
-        <v>10</v>
-      </c>
-      <c r="J25" s="7">
+      <c r="I25" s="6">
+        <v>10</v>
+      </c>
+      <c r="J25" s="6">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="6">
         <f t="shared" si="4"/>
         <v>5202.2000000000007</v>
       </c>
@@ -1607,8 +1596,8 @@
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>24</v>
+      <c r="B26" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="6"/>
@@ -1634,14 +1623,14 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="I26" s="7">
-        <v>10</v>
-      </c>
-      <c r="J26" s="7">
+      <c r="I26" s="6">
+        <v>10</v>
+      </c>
+      <c r="J26" s="6">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="6">
         <f t="shared" si="4"/>
         <v>5169.3000000000011</v>
       </c>
@@ -1651,8 +1640,8 @@
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>25</v>
+      <c r="B27" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="6"/>
@@ -1678,14 +1667,14 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="I27" s="7">
-        <v>10</v>
-      </c>
-      <c r="J27" s="7">
+      <c r="I27" s="6">
+        <v>10</v>
+      </c>
+      <c r="J27" s="6">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="6">
         <f t="shared" si="4"/>
         <v>5136.4000000000005</v>
       </c>
@@ -1695,8 +1684,8 @@
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>35</v>
+      <c r="B28" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="6"/>
@@ -1722,14 +1711,14 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="I28" s="7">
-        <v>10</v>
-      </c>
-      <c r="J28" s="7">
+      <c r="I28" s="6">
+        <v>10</v>
+      </c>
+      <c r="J28" s="6">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="6">
         <f t="shared" si="4"/>
         <v>5103.5000000000009</v>
       </c>
@@ -1739,8 +1728,8 @@
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>36</v>
+      <c r="B29" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="6"/>
@@ -1766,14 +1755,14 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I29" s="7">
-        <v>10</v>
-      </c>
-      <c r="J29" s="7">
+      <c r="I29" s="6">
+        <v>10</v>
+      </c>
+      <c r="J29" s="6">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="6">
         <f t="shared" si="4"/>
         <v>5070.6000000000004</v>
       </c>
@@ -1783,8 +1772,8 @@
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>26</v>
+      <c r="B30" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="6"/>
@@ -1810,14 +1799,14 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="I30" s="7">
-        <v>10</v>
-      </c>
-      <c r="J30" s="7">
+      <c r="I30" s="6">
+        <v>10</v>
+      </c>
+      <c r="J30" s="6">
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="6">
         <f t="shared" si="4"/>
         <v>5037.7000000000007</v>
       </c>
@@ -1827,8 +1816,8 @@
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>27</v>
+      <c r="B31" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="6"/>
@@ -1854,14 +1843,14 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I31" s="7">
-        <v>10</v>
-      </c>
-      <c r="J31" s="7">
+      <c r="I31" s="6">
+        <v>10</v>
+      </c>
+      <c r="J31" s="6">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="6">
         <f t="shared" si="4"/>
         <v>5004.8000000000011</v>
       </c>
@@ -1871,8 +1860,8 @@
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>28</v>
+      <c r="B32" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="6"/>
@@ -1898,14 +1887,14 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="I32" s="7">
-        <v>10</v>
-      </c>
-      <c r="J32" s="7">
+      <c r="I32" s="6">
+        <v>10</v>
+      </c>
+      <c r="J32" s="6">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="6">
         <f t="shared" si="4"/>
         <v>4971.9000000000005</v>
       </c>
@@ -1915,8 +1904,8 @@
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>29</v>
+      <c r="B33" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="6"/>
@@ -1942,14 +1931,14 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="I33" s="7">
-        <v>10</v>
-      </c>
-      <c r="J33" s="7">
+      <c r="I33" s="6">
+        <v>10</v>
+      </c>
+      <c r="J33" s="6">
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="6">
         <f t="shared" si="4"/>
         <v>4939.0000000000009</v>
       </c>
@@ -1959,8 +1948,8 @@
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>30</v>
+      <c r="B34" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="6"/>
@@ -1986,14 +1975,14 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I34" s="7">
-        <v>10</v>
-      </c>
-      <c r="J34" s="7">
+      <c r="I34" s="6">
+        <v>10</v>
+      </c>
+      <c r="J34" s="6">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="6">
         <f t="shared" si="4"/>
         <v>4906.1000000000004</v>
       </c>
@@ -2003,8 +1992,8 @@
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>31</v>
+      <c r="B35" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="6"/>
@@ -2030,14 +2019,14 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="I35" s="7">
-        <v>10</v>
-      </c>
-      <c r="J35" s="7">
+      <c r="I35" s="6">
+        <v>10</v>
+      </c>
+      <c r="J35" s="6">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="6">
         <f t="shared" si="4"/>
         <v>2556.6000000000004</v>
       </c>
@@ -2047,8 +2036,8 @@
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>32</v>
+      <c r="B36" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="6"/>
@@ -2074,14 +2063,14 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="I36" s="7">
-        <v>10</v>
-      </c>
-      <c r="J36" s="7">
+      <c r="I36" s="6">
+        <v>10</v>
+      </c>
+      <c r="J36" s="6">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K36" s="6">
         <f t="shared" si="4"/>
         <v>2545.15</v>
       </c>
@@ -2091,8 +2080,8 @@
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>33</v>
+      <c r="B37" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="6"/>
@@ -2118,14 +2107,14 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="I37" s="7">
-        <v>10</v>
-      </c>
-      <c r="J37" s="7">
+      <c r="I37" s="6">
+        <v>10</v>
+      </c>
+      <c r="J37" s="6">
         <f t="shared" si="3"/>
         <v>260</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K37" s="6">
         <f t="shared" si="4"/>
         <v>2533.7000000000003</v>
       </c>
@@ -2135,8 +2124,8 @@
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>34</v>
+      <c r="B38" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="6"/>
@@ -2162,30 +2151,30 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="I38" s="7">
-        <v>10</v>
-      </c>
-      <c r="J38" s="7">
+      <c r="I38" s="6">
+        <v>10</v>
+      </c>
+      <c r="J38" s="6">
         <f t="shared" si="3"/>
         <v>270</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K38" s="6">
         <f t="shared" si="4"/>
         <v>2522.2500000000005</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="7">
+        <v>42</v>
+      </c>
+      <c r="C40" s="6">
         <f>FLOOR(SUM(K3:K38),1)</f>
         <v>183831</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2194,7 +2183,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2203,9 +2192,9 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="7">
+        <v>45</v>
+      </c>
+      <c r="C43" s="6">
         <f>MAX(K3:K38)</f>
         <v>6006.0000000000009</v>
       </c>

--- a/LR3/table_1_78.xlsx
+++ b/LR3/table_1_78.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F45348-D4DE-4237-BE4E-B41AA678D2E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CA06A4-08FB-4237-B6FF-6EEC08F3FD10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,6 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Аллаяров</t>
-  </si>
-  <si>
     <t>Аминов</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
     <t>Сумма, руб.</t>
   </si>
   <si>
@@ -173,6 +167,12 @@
   </si>
   <si>
     <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аллаяров </t>
   </si>
 </sst>
 </file>
@@ -183,7 +183,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$₽-419]_-;\-* #,##0.00\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +200,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -227,7 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -238,6 +245,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -523,20 +533,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="B40" activeCellId="1" sqref="A1:K38 B40:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="6" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -551,42 +563,42 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="I2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
+      <c r="B3" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C3" s="4">
         <v>70</v>
@@ -628,8 +640,8 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
+      <c r="B4" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -672,8 +684,8 @@
         <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
+      <c r="B5" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
@@ -716,8 +728,8 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
+      <c r="B6" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="6"/>
@@ -760,8 +772,8 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
+      <c r="B7" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="6"/>
@@ -804,8 +816,8 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
+      <c r="B8" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="6"/>
@@ -848,8 +860,8 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="6"/>
@@ -892,8 +904,8 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
+      <c r="B10" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="6"/>
@@ -936,8 +948,8 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
+      <c r="B11" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="6"/>
@@ -980,8 +992,8 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
+      <c r="B12" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="6"/>
@@ -1024,8 +1036,8 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
+      <c r="B13" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="6"/>
@@ -1068,8 +1080,8 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
+      <c r="B14" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="6"/>
@@ -1112,8 +1124,8 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
+      <c r="B15" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="6"/>
@@ -1156,8 +1168,8 @@
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
+      <c r="B16" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="6"/>
@@ -1200,8 +1212,8 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
+      <c r="B17" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="6"/>
@@ -1244,8 +1256,8 @@
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
+      <c r="B18" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="6"/>
@@ -1288,8 +1300,8 @@
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>17</v>
+      <c r="B19" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="6"/>
@@ -1332,8 +1344,8 @@
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>18</v>
+      <c r="B20" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="6"/>
@@ -1376,8 +1388,8 @@
         <f>A20+1</f>
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>19</v>
+      <c r="B21" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="6"/>
@@ -1420,8 +1432,8 @@
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>20</v>
+      <c r="B22" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="6"/>
@@ -1464,8 +1476,8 @@
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>21</v>
+      <c r="B23" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="6"/>
@@ -1508,8 +1520,8 @@
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>49</v>
+      <c r="B24" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="6"/>
@@ -1552,8 +1564,8 @@
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>22</v>
+      <c r="B25" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="6"/>
@@ -1596,8 +1608,8 @@
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>23</v>
+      <c r="B26" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="6"/>
@@ -1640,8 +1652,8 @@
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>24</v>
+      <c r="B27" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="6"/>
@@ -1684,8 +1696,8 @@
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>34</v>
+      <c r="B28" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="6"/>
@@ -1728,8 +1740,8 @@
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>35</v>
+      <c r="B29" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="6"/>
@@ -1772,8 +1784,8 @@
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>25</v>
+      <c r="B30" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="6"/>
@@ -1816,8 +1828,8 @@
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>26</v>
+      <c r="B31" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="6"/>
@@ -1860,8 +1872,8 @@
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>27</v>
+      <c r="B32" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="6"/>
@@ -1904,8 +1916,8 @@
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>28</v>
+      <c r="B33" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="6"/>
@@ -1948,8 +1960,8 @@
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>29</v>
+      <c r="B34" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="6"/>
@@ -1992,8 +2004,8 @@
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>30</v>
+      <c r="B35" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="6"/>
@@ -2036,8 +2048,8 @@
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>31</v>
+      <c r="B36" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="6"/>
@@ -2080,8 +2092,8 @@
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>32</v>
+      <c r="B37" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="6"/>
@@ -2124,8 +2136,8 @@
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>33</v>
+      <c r="B38" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="6"/>
@@ -2165,7 +2177,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="6">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2174,7 +2186,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2183,7 +2195,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2192,7 +2204,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C43" s="6">
         <f>MAX(K3:K38)</f>
@@ -2201,5 +2213,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>